--- a/Draft.xlsx
+++ b/Draft.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pawel\PycharmProjects\autoXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD609A5A-9624-41DF-8B68-64510A66FA3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7244F324-EB00-435B-B354-7FBF343B4424}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Opis+przykłady" sheetId="1" r:id="rId1"/>
-    <sheet name="Stawki prowizji" sheetId="2" r:id="rId2"/>
-    <sheet name="Raport Spedytorzy - przyklad" sheetId="3" r:id="rId3"/>
-    <sheet name="Raport Spedytor - przyklad" sheetId="4" r:id="rId4"/>
+    <sheet name="Raport Spedytorzy - przyklad" sheetId="2" r:id="rId2"/>
+    <sheet name="Raport Spedytor - przyklad" sheetId="3" r:id="rId3"/>
+    <sheet name="Stawki prowizji" sheetId="4" r:id="rId4"/>
+    <sheet name="nowa" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="139">
   <si>
     <t>Źródło danych</t>
   </si>
@@ -182,6 +183,162 @@
     <t>(88000-30000)*30%-1500+0</t>
   </si>
   <si>
+    <t>Raport: Spedytorzy</t>
+  </si>
+  <si>
+    <t>Wygenerowano 13:57:40 06.02.2023</t>
+  </si>
+  <si>
+    <t>Spedytor</t>
+  </si>
+  <si>
+    <t>Koszty</t>
+  </si>
+  <si>
+    <t>Koszty-Waluta</t>
+  </si>
+  <si>
+    <t>Przychód</t>
+  </si>
+  <si>
+    <t>Przychód-Waluta</t>
+  </si>
+  <si>
+    <t>Prowizja</t>
+  </si>
+  <si>
+    <t>Prowizja-Waluta</t>
+  </si>
+  <si>
+    <t>Marża [%]</t>
+  </si>
+  <si>
+    <t>Zlecenia</t>
+  </si>
+  <si>
+    <t>Ładunki</t>
+  </si>
+  <si>
+    <t>Km na zleceniach</t>
+  </si>
+  <si>
+    <t>Km dojazd</t>
+  </si>
+  <si>
+    <t>Km z ładunkiem</t>
+  </si>
+  <si>
+    <t>tekst</t>
+  </si>
+  <si>
+    <t>Zlecenia [wszystkie]</t>
+  </si>
+  <si>
+    <t>Wygenerowano 07:29:17 10.02.2023</t>
+  </si>
+  <si>
+    <t>Numer zlecenia</t>
+  </si>
+  <si>
+    <t>Przewoźnik</t>
+  </si>
+  <si>
+    <t>Status pojazdu</t>
+  </si>
+  <si>
+    <t>Koszt</t>
+  </si>
+  <si>
+    <t>Koszt-Waluta</t>
+  </si>
+  <si>
+    <t>Data utworzenia</t>
+  </si>
+  <si>
+    <t>Klient</t>
+  </si>
+  <si>
+    <t>Użytkownik</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Etapy rozliczenia</t>
+  </si>
+  <si>
+    <t>Osoba kontaktowa</t>
+  </si>
+  <si>
+    <t>Załadunki</t>
+  </si>
+  <si>
+    <t>Rozładunki</t>
+  </si>
+  <si>
+    <t>Tel. kontaktowy</t>
+  </si>
+  <si>
+    <t>Całkowity ładunek [LDM]</t>
+  </si>
+  <si>
+    <t>Całkowity ładunek [kg]</t>
+  </si>
+  <si>
+    <t>Towary</t>
+  </si>
+  <si>
+    <t>Dokumenty</t>
+  </si>
+  <si>
+    <t>Km ładowne</t>
+  </si>
+  <si>
+    <t>Suma km</t>
+  </si>
+  <si>
+    <t>Przychód/Suma km</t>
+  </si>
+  <si>
+    <t>Przychód/Suma km-Waluta</t>
+  </si>
+  <si>
+    <t>Przychód/Km ładowne</t>
+  </si>
+  <si>
+    <t>Przychód/Km ładowne-Waluta</t>
+  </si>
+  <si>
+    <t>Suma km rzeczywiste</t>
+  </si>
+  <si>
+    <t>Km poza korytarzem</t>
+  </si>
+  <si>
+    <t>Tagi</t>
+  </si>
+  <si>
+    <t>Spedytor ładunku</t>
+  </si>
+  <si>
+    <t>Km rzeczywiste dojazd</t>
+  </si>
+  <si>
+    <t>Km rzeczywiste ładowne</t>
+  </si>
+  <si>
+    <t>Notatki</t>
+  </si>
+  <si>
+    <t>PLN</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>nr telefonu</t>
+  </si>
+  <si>
     <t>ID Spedytora</t>
   </si>
   <si>
@@ -200,81 +357,81 @@
     <t>01</t>
   </si>
   <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>1301</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>1701</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>1601</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>0302</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>0202</t>
+  </si>
+  <si>
     <t>04</t>
   </si>
   <si>
-    <t>03</t>
-  </si>
-  <si>
-    <t>14</t>
+    <t>0503</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>0603</t>
+  </si>
+  <si>
+    <t>06</t>
   </si>
   <si>
     <t>07</t>
   </si>
   <si>
-    <t>0503</t>
-  </si>
-  <si>
-    <t>05</t>
-  </si>
-  <si>
-    <t>1301</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>1701</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>02</t>
-  </si>
-  <si>
     <t>0804</t>
   </si>
   <si>
     <t>08</t>
   </si>
   <si>
-    <t>0302</t>
-  </si>
-  <si>
-    <t>0603</t>
-  </si>
-  <si>
-    <t>06</t>
-  </si>
-  <si>
-    <t>0202</t>
-  </si>
-  <si>
-    <t>1601</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
     <t>0905</t>
   </si>
   <si>
@@ -297,165 +454,6 @@
   </si>
   <si>
     <t>12</t>
-  </si>
-  <si>
-    <t>Raport: Spedytorzy</t>
-  </si>
-  <si>
-    <t>Wygenerowano 13:57:40 06.02.2023</t>
-  </si>
-  <si>
-    <t>Spedytor</t>
-  </si>
-  <si>
-    <t>Koszty</t>
-  </si>
-  <si>
-    <t>Koszty-Waluta</t>
-  </si>
-  <si>
-    <t>Przychód</t>
-  </si>
-  <si>
-    <t>Przychód-Waluta</t>
-  </si>
-  <si>
-    <t>Prowizja</t>
-  </si>
-  <si>
-    <t>Prowizja-Waluta</t>
-  </si>
-  <si>
-    <t>Marża [%]</t>
-  </si>
-  <si>
-    <t>Zlecenia</t>
-  </si>
-  <si>
-    <t>Ładunki</t>
-  </si>
-  <si>
-    <t>Km na zleceniach</t>
-  </si>
-  <si>
-    <t>Km dojazd</t>
-  </si>
-  <si>
-    <t>Km z ładunkiem</t>
-  </si>
-  <si>
-    <t>tekst</t>
-  </si>
-  <si>
-    <t>Zlecenia [wszystkie]</t>
-  </si>
-  <si>
-    <t>Wygenerowano 07:29:17 10.02.2023</t>
-  </si>
-  <si>
-    <t>Numer zlecenia</t>
-  </si>
-  <si>
-    <t>Przewoźnik</t>
-  </si>
-  <si>
-    <t>Status pojazdu</t>
-  </si>
-  <si>
-    <t>Koszt</t>
-  </si>
-  <si>
-    <t>Koszt-Waluta</t>
-  </si>
-  <si>
-    <t>Data utworzenia</t>
-  </si>
-  <si>
-    <t>Klient</t>
-  </si>
-  <si>
-    <t>Użytkownik</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Etapy rozliczenia</t>
-  </si>
-  <si>
-    <t>Osoba kontaktowa</t>
-  </si>
-  <si>
-    <t>Załadunki</t>
-  </si>
-  <si>
-    <t>Rozładunki</t>
-  </si>
-  <si>
-    <t>Tel. kontaktowy</t>
-  </si>
-  <si>
-    <t>Całkowity ładunek [LDM]</t>
-  </si>
-  <si>
-    <t>Całkowity ładunek [kg]</t>
-  </si>
-  <si>
-    <t>Towary</t>
-  </si>
-  <si>
-    <t>Dokumenty</t>
-  </si>
-  <si>
-    <t>Km ładowne</t>
-  </si>
-  <si>
-    <t>Suma km</t>
-  </si>
-  <si>
-    <t>Przychód/Suma km</t>
-  </si>
-  <si>
-    <t>Przychód/Suma km-Waluta</t>
-  </si>
-  <si>
-    <t>Przychód/Km ładowne</t>
-  </si>
-  <si>
-    <t>Przychód/Km ładowne-Waluta</t>
-  </si>
-  <si>
-    <t>Suma km rzeczywiste</t>
-  </si>
-  <si>
-    <t>Km poza korytarzem</t>
-  </si>
-  <si>
-    <t>Tagi</t>
-  </si>
-  <si>
-    <t>Spedytor ładunku</t>
-  </si>
-  <si>
-    <t>Km rzeczywiste dojazd</t>
-  </si>
-  <si>
-    <t>Km rzeczywiste ładowne</t>
-  </si>
-  <si>
-    <t>Notatki</t>
-  </si>
-  <si>
-    <t>PLN</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>Plastik</t>
-  </si>
-  <si>
-    <t>nr telefonu</t>
   </si>
 </sst>
 </file>
@@ -614,7 +612,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -722,13 +720,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1064,8 +1055,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1630,1250 +1621,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F72"/>
-  <sheetViews>
-    <sheetView zoomScale="105" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="4.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="10.77734375" customWidth="1"/>
-    <col min="5" max="5" width="10.21875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="2">
-        <v>12000</v>
-      </c>
-      <c r="F2" s="7">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="2">
-        <v>25000</v>
-      </c>
-      <c r="F3" s="7">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="2">
-        <v>35000</v>
-      </c>
-      <c r="F4" s="7">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="2">
-        <v>14000</v>
-      </c>
-      <c r="F5" s="7">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="2">
-        <v>16000</v>
-      </c>
-      <c r="F6" s="7">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="2">
-        <v>18000</v>
-      </c>
-      <c r="F7" s="7">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="2">
-        <v>25000</v>
-      </c>
-      <c r="F8" s="7">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" s="41" t="s">
-        <v>56</v>
-      </c>
-      <c r="C9" s="41" t="s">
-        <v>53</v>
-      </c>
-      <c r="D9" s="41" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="41">
-        <v>12000</v>
-      </c>
-      <c r="F9" s="42">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="B10" s="41" t="s">
-        <v>56</v>
-      </c>
-      <c r="C10" s="41" t="s">
-        <v>53</v>
-      </c>
-      <c r="D10" s="41" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="41">
-        <v>15000</v>
-      </c>
-      <c r="F10" s="42">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="B11" s="41" t="s">
-        <v>56</v>
-      </c>
-      <c r="C11" s="41" t="s">
-        <v>53</v>
-      </c>
-      <c r="D11" s="41" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="41">
-        <v>20000</v>
-      </c>
-      <c r="F11" s="42">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" s="2">
-        <v>30000</v>
-      </c>
-      <c r="F12" s="7">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" s="2">
-        <v>60000</v>
-      </c>
-      <c r="F13" s="7">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" s="2">
-        <v>85000</v>
-      </c>
-      <c r="F14" s="7">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15" s="2">
-        <v>15000</v>
-      </c>
-      <c r="F15" s="7">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16" s="2">
-        <v>15000</v>
-      </c>
-      <c r="F16" s="7">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17" s="2">
-        <v>20000</v>
-      </c>
-      <c r="F17" s="7">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E18" s="2">
-        <v>30000</v>
-      </c>
-      <c r="F18" s="7">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19" s="2">
-        <v>35000</v>
-      </c>
-      <c r="F19" s="7">
-        <v>0.28000000000000003</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E20" s="2">
-        <v>12000</v>
-      </c>
-      <c r="F20" s="7">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E21" s="2">
-        <v>25000</v>
-      </c>
-      <c r="F21" s="7">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E22" s="2">
-        <v>35000</v>
-      </c>
-      <c r="F22" s="7">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E23" s="2">
-        <v>55000</v>
-      </c>
-      <c r="F23" s="7">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E24" s="2">
-        <v>70000</v>
-      </c>
-      <c r="F24" s="7">
-        <v>6.5000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25" s="2">
-        <v>100000</v>
-      </c>
-      <c r="F25" s="7">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E26" s="2">
-        <v>30000</v>
-      </c>
-      <c r="F26" s="7">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E27" s="2">
-        <v>60000</v>
-      </c>
-      <c r="F27" s="7">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E28" s="2">
-        <v>85000</v>
-      </c>
-      <c r="F28" s="7">
-        <v>0.21</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E29" s="2">
-        <v>55000</v>
-      </c>
-      <c r="F29" s="7">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E30" s="2">
-        <v>70000</v>
-      </c>
-      <c r="F30" s="7">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E31" s="2">
-        <v>100000</v>
-      </c>
-      <c r="F31" s="7">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E32" s="2">
-        <v>0</v>
-      </c>
-      <c r="F32" s="7">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E33" s="2">
-        <v>55000</v>
-      </c>
-      <c r="F33" s="7">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E34" s="2">
-        <v>70000</v>
-      </c>
-      <c r="F34" s="7">
-        <v>5.5E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E35" s="2">
-        <v>100000</v>
-      </c>
-      <c r="F35" s="7">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E36" s="2">
-        <v>12000</v>
-      </c>
-      <c r="F36" s="7">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E37" s="2">
-        <v>25000</v>
-      </c>
-      <c r="F37" s="7">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E38" s="2">
-        <v>35000</v>
-      </c>
-      <c r="F38" s="7">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E39" s="2">
-        <v>16000</v>
-      </c>
-      <c r="F39" s="7">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E40" s="2">
-        <v>20000</v>
-      </c>
-      <c r="F40" s="7">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E41" s="2">
-        <v>30000</v>
-      </c>
-      <c r="F41" s="7">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E42" s="2">
-        <v>16000</v>
-      </c>
-      <c r="F42" s="7">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E43" s="2">
-        <v>20000</v>
-      </c>
-      <c r="F43" s="7">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E44" s="2">
-        <v>30000</v>
-      </c>
-      <c r="F44" s="7">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E45" s="2">
-        <v>15000</v>
-      </c>
-      <c r="F45" s="7">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="A46" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E46" s="2">
-        <v>20000</v>
-      </c>
-      <c r="F46" s="7">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="A47" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E47" s="2">
-        <v>25000</v>
-      </c>
-      <c r="F47" s="7">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="A48" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E48" s="2">
-        <v>52000</v>
-      </c>
-      <c r="F48" s="7">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
-      <c r="A49" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E49" s="2">
-        <v>60000</v>
-      </c>
-      <c r="F49" s="7">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="A50" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E50" s="2">
-        <v>90000</v>
-      </c>
-      <c r="F50" s="7">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
-      <c r="A51" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E51" s="2">
-        <v>52000</v>
-      </c>
-      <c r="F51" s="7">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
-      <c r="A52" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E52" s="2">
-        <v>60000</v>
-      </c>
-      <c r="F52" s="7">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
-      <c r="A53" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E53" s="2">
-        <v>90000</v>
-      </c>
-      <c r="F53" s="7">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
-      <c r="A54" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E54" s="2">
-        <v>52000</v>
-      </c>
-      <c r="F54" s="7">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
-      <c r="A55" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E55" s="2">
-        <v>60000</v>
-      </c>
-      <c r="F55" s="7">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
-      <c r="A56" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E56" s="2">
-        <v>90000</v>
-      </c>
-      <c r="F56" s="7">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
-      <c r="A57" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E57" s="2">
-        <v>52000</v>
-      </c>
-      <c r="F57" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="A58" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E58" s="2">
-        <v>60000</v>
-      </c>
-      <c r="F58" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
-      <c r="A59" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E59" s="2">
-        <v>90000</v>
-      </c>
-      <c r="F59" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
-      <c r="A60" s="3"/>
-    </row>
-    <row r="61" spans="1:6">
-      <c r="A61" s="3"/>
-    </row>
-    <row r="62" spans="1:6">
-      <c r="A62" s="3"/>
-    </row>
-    <row r="63" spans="1:6">
-      <c r="A63" s="3"/>
-    </row>
-    <row r="64" spans="1:6">
-      <c r="A64" s="3"/>
-    </row>
-    <row r="65" spans="1:1">
-      <c r="A65" s="3"/>
-    </row>
-    <row r="66" spans="1:1">
-      <c r="A66" s="3"/>
-    </row>
-    <row r="67" spans="1:1">
-      <c r="A67" s="3"/>
-    </row>
-    <row r="68" spans="1:1">
-      <c r="A68" s="3"/>
-    </row>
-    <row r="69" spans="1:1">
-      <c r="A69" s="3"/>
-    </row>
-    <row r="70" spans="1:1">
-      <c r="A70" s="3"/>
-    </row>
-    <row r="71" spans="1:1">
-      <c r="A71" s="3"/>
-    </row>
-    <row r="72" spans="1:1">
-      <c r="A72" s="3"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:O39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="84" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3202,18 +1953,18 @@
   <sheetData>
     <row r="1" spans="1:15" ht="19.2" customHeight="1">
       <c r="A1" s="30"/>
-      <c r="B1" s="43" t="s">
-        <v>87</v>
-      </c>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
+      <c r="B1" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
       <c r="L1" s="30"/>
       <c r="M1" s="30"/>
       <c r="N1" s="30"/>
@@ -3221,18 +1972,18 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="30"/>
-      <c r="B2" s="47" t="s">
-        <v>88</v>
-      </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
+      <c r="B2" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
       <c r="L2" s="30"/>
       <c r="M2" s="30"/>
       <c r="N2" s="30"/>
@@ -3241,44 +1992,44 @@
     <row r="3" spans="1:15" ht="27.6" customHeight="1">
       <c r="A3" s="30"/>
       <c r="B3" s="36" t="s">
-        <v>89</v>
+        <v>50</v>
       </c>
       <c r="C3" s="31" t="s">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="D3" s="31" t="s">
-        <v>91</v>
+        <v>52</v>
       </c>
       <c r="E3" s="31" t="s">
-        <v>92</v>
+        <v>53</v>
       </c>
       <c r="F3" s="31" t="s">
-        <v>93</v>
+        <v>54</v>
       </c>
       <c r="G3" s="36" t="s">
-        <v>94</v>
+        <v>55</v>
       </c>
       <c r="H3" s="31" t="s">
-        <v>95</v>
+        <v>56</v>
       </c>
       <c r="I3" s="31" t="s">
-        <v>96</v>
+        <v>57</v>
       </c>
       <c r="J3" s="31" t="s">
-        <v>97</v>
-      </c>
-      <c r="K3" s="45" t="s">
-        <v>98</v>
-      </c>
-      <c r="L3" s="46"/>
+        <v>58</v>
+      </c>
+      <c r="K3" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="L3" s="43"/>
       <c r="M3" s="31" t="s">
-        <v>99</v>
+        <v>60</v>
       </c>
       <c r="N3" s="31" t="s">
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="O3" s="31" t="s">
-        <v>101</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -3290,19 +2041,19 @@
         <v>0</v>
       </c>
       <c r="D4" s="32" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="E4" s="32">
         <v>0</v>
       </c>
       <c r="F4" s="32" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="G4" s="39">
-        <v>2533</v>
+        <v>1000</v>
       </c>
       <c r="H4" s="32" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="I4" s="33">
         <v>0</v>
@@ -3335,20 +2086,20 @@
         <v>0</v>
       </c>
       <c r="D5" s="32" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="E5" s="32">
         <v>0</v>
       </c>
       <c r="F5" s="32" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="G5" s="39">
-        <f>G4+146</f>
-        <v>2679</v>
+        <f t="shared" ref="G5:G23" si="0">G4+123</f>
+        <v>1123</v>
       </c>
       <c r="H5" s="32" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="I5" s="33">
         <v>0</v>
@@ -3381,20 +2132,20 @@
         <v>0</v>
       </c>
       <c r="D6" s="32" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="E6" s="32">
         <v>0</v>
       </c>
       <c r="F6" s="32" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="G6" s="39">
-        <f t="shared" ref="G6:G23" si="0">G5+146</f>
-        <v>2825</v>
+        <f t="shared" si="0"/>
+        <v>1246</v>
       </c>
       <c r="H6" s="32" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="I6" s="33">
         <v>0</v>
@@ -3427,20 +2178,20 @@
         <v>0</v>
       </c>
       <c r="D7" s="32" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="E7" s="32">
         <v>0</v>
       </c>
       <c r="F7" s="32" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="G7" s="39">
         <f t="shared" si="0"/>
-        <v>2971</v>
+        <v>1369</v>
       </c>
       <c r="H7" s="32" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="I7" s="33">
         <v>0</v>
@@ -3473,20 +2224,20 @@
         <v>0</v>
       </c>
       <c r="D8" s="32" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="E8" s="32">
         <v>0</v>
       </c>
       <c r="F8" s="32" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="G8" s="39">
         <f t="shared" si="0"/>
-        <v>3117</v>
+        <v>1492</v>
       </c>
       <c r="H8" s="32" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="I8" s="33">
         <v>0</v>
@@ -3519,20 +2270,20 @@
         <v>0</v>
       </c>
       <c r="D9" s="32" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="E9" s="32">
         <v>0</v>
       </c>
       <c r="F9" s="32" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="G9" s="39">
         <f t="shared" si="0"/>
-        <v>3263</v>
+        <v>1615</v>
       </c>
       <c r="H9" s="32" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="I9" s="33">
         <v>0</v>
@@ -3565,20 +2316,20 @@
         <v>0</v>
       </c>
       <c r="D10" s="32" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="E10" s="32">
         <v>0</v>
       </c>
       <c r="F10" s="32" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="G10" s="39">
         <f t="shared" si="0"/>
-        <v>3409</v>
+        <v>1738</v>
       </c>
       <c r="H10" s="32" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="I10" s="33">
         <v>0</v>
@@ -3611,20 +2362,20 @@
         <v>0</v>
       </c>
       <c r="D11" s="32" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="E11" s="32">
         <v>0</v>
       </c>
       <c r="F11" s="32" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="G11" s="39">
         <f t="shared" si="0"/>
-        <v>3555</v>
+        <v>1861</v>
       </c>
       <c r="H11" s="32" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="I11" s="33">
         <v>0</v>
@@ -3657,20 +2408,20 @@
         <v>0</v>
       </c>
       <c r="D12" s="32" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="E12" s="32">
         <v>0</v>
       </c>
       <c r="F12" s="32" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="G12" s="39">
         <f t="shared" si="0"/>
-        <v>3701</v>
+        <v>1984</v>
       </c>
       <c r="H12" s="32" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="I12" s="33">
         <v>0</v>
@@ -3703,20 +2454,20 @@
         <v>0</v>
       </c>
       <c r="D13" s="32" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="E13" s="32">
         <v>0</v>
       </c>
       <c r="F13" s="32" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="G13" s="39">
         <f t="shared" si="0"/>
-        <v>3847</v>
+        <v>2107</v>
       </c>
       <c r="H13" s="32" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="I13" s="33">
         <v>0</v>
@@ -3749,20 +2500,20 @@
         <v>0</v>
       </c>
       <c r="D14" s="32" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="E14" s="32">
         <v>0</v>
       </c>
       <c r="F14" s="32" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="G14" s="39">
         <f t="shared" si="0"/>
-        <v>3993</v>
+        <v>2230</v>
       </c>
       <c r="H14" s="32" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="I14" s="33">
         <v>0</v>
@@ -3795,20 +2546,20 @@
         <v>0</v>
       </c>
       <c r="D15" s="32" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="E15" s="32">
         <v>0</v>
       </c>
       <c r="F15" s="32" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="G15" s="39">
         <f t="shared" si="0"/>
-        <v>4139</v>
+        <v>2353</v>
       </c>
       <c r="H15" s="32" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="I15" s="33">
         <v>0</v>
@@ -3841,20 +2592,20 @@
         <v>0</v>
       </c>
       <c r="D16" s="32" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="E16" s="32">
         <v>0</v>
       </c>
       <c r="F16" s="32" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="G16" s="39">
         <f t="shared" si="0"/>
-        <v>4285</v>
+        <v>2476</v>
       </c>
       <c r="H16" s="32" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="I16" s="33">
         <v>0</v>
@@ -3887,20 +2638,20 @@
         <v>0</v>
       </c>
       <c r="D17" s="32" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="E17" s="32">
         <v>0</v>
       </c>
       <c r="F17" s="32" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="G17" s="39">
         <f t="shared" si="0"/>
-        <v>4431</v>
+        <v>2599</v>
       </c>
       <c r="H17" s="32" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="I17" s="33">
         <v>0</v>
@@ -3933,20 +2684,20 @@
         <v>0</v>
       </c>
       <c r="D18" s="32" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="E18" s="32">
         <v>0</v>
       </c>
       <c r="F18" s="32" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="G18" s="39">
         <f t="shared" si="0"/>
-        <v>4577</v>
+        <v>2722</v>
       </c>
       <c r="H18" s="32" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="I18" s="33">
         <v>0</v>
@@ -3979,20 +2730,20 @@
         <v>0</v>
       </c>
       <c r="D19" s="32" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="E19" s="32">
         <v>0</v>
       </c>
       <c r="F19" s="32" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="G19" s="39">
         <f t="shared" si="0"/>
-        <v>4723</v>
+        <v>2845</v>
       </c>
       <c r="H19" s="32" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="I19" s="33">
         <v>0</v>
@@ -4025,20 +2776,20 @@
         <v>0</v>
       </c>
       <c r="D20" s="32" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="E20" s="32">
         <v>0</v>
       </c>
       <c r="F20" s="32" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="G20" s="39">
         <f t="shared" si="0"/>
-        <v>4869</v>
+        <v>2968</v>
       </c>
       <c r="H20" s="32" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="I20" s="33">
         <v>0</v>
@@ -4071,20 +2822,20 @@
         <v>0</v>
       </c>
       <c r="D21" s="32" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="E21" s="32">
         <v>0</v>
       </c>
       <c r="F21" s="32" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="G21" s="39">
         <f t="shared" si="0"/>
-        <v>5015</v>
+        <v>3091</v>
       </c>
       <c r="H21" s="32" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="I21" s="33">
         <v>0</v>
@@ -4117,20 +2868,20 @@
         <v>0</v>
       </c>
       <c r="D22" s="32" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="E22" s="32">
         <v>0</v>
       </c>
       <c r="F22" s="32" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="G22" s="39">
         <f t="shared" si="0"/>
-        <v>5161</v>
+        <v>3214</v>
       </c>
       <c r="H22" s="32" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="I22" s="33">
         <v>0</v>
@@ -4163,20 +2914,20 @@
         <v>0</v>
       </c>
       <c r="D23" s="32" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="E23" s="32">
         <v>0</v>
       </c>
       <c r="F23" s="32" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="G23" s="39">
         <f t="shared" si="0"/>
-        <v>5307</v>
+        <v>3337</v>
       </c>
       <c r="H23" s="32" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="I23" s="33">
         <v>0</v>
@@ -4482,12 +3233,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AM34"/>
   <sheetViews>
-    <sheetView zoomScale="53" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="H51" sqref="H51"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B15" sqref="B14:B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4816,18 +3567,18 @@
   <sheetData>
     <row r="1" spans="1:39" ht="19.2" customHeight="1">
       <c r="A1" s="30"/>
-      <c r="B1" s="43" t="s">
-        <v>103</v>
-      </c>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
+      <c r="B1" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
       <c r="L1" s="30"/>
       <c r="M1" s="30"/>
       <c r="N1" s="30"/>
@@ -4859,18 +3610,18 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" s="30"/>
-      <c r="B2" s="47" t="s">
-        <v>104</v>
-      </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
+      <c r="B2" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
       <c r="L2" s="30"/>
       <c r="M2" s="30"/>
       <c r="N2" s="30"/>
@@ -4903,125 +3654,125 @@
     <row r="3" spans="1:39" ht="27.6" customHeight="1">
       <c r="A3" s="30"/>
       <c r="B3" s="31" t="s">
-        <v>105</v>
+        <v>66</v>
       </c>
       <c r="C3" s="31" t="s">
-        <v>98</v>
+        <v>59</v>
       </c>
       <c r="D3" s="31" t="s">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="E3" s="31" t="s">
-        <v>107</v>
+        <v>68</v>
       </c>
       <c r="F3" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="H3" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="I3" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="J3" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="L3" s="43"/>
+      <c r="M3" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="N3" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="O3" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="P3" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q3" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="R3" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="S3" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="T3" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="U3" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="V3" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="W3" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="X3" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y3" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z3" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA3" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB3" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC3" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD3" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE3" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="AF3" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="AG3" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="AH3" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="AI3" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="G3" s="31" t="s">
+      <c r="AJ3" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="H3" s="31" t="s">
-        <v>108</v>
-      </c>
-      <c r="I3" s="31" t="s">
-        <v>109</v>
-      </c>
-      <c r="J3" s="36" t="s">
+      <c r="AK3" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="K3" s="45" t="s">
+      <c r="AL3" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="L3" s="46"/>
-      <c r="M3" s="31" t="s">
-        <v>110</v>
-      </c>
-      <c r="N3" s="36" t="s">
-        <v>111</v>
-      </c>
-      <c r="O3" s="31" t="s">
-        <v>112</v>
-      </c>
-      <c r="P3" s="31" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q3" s="31" t="s">
-        <v>114</v>
-      </c>
-      <c r="R3" s="31" t="s">
-        <v>115</v>
-      </c>
-      <c r="S3" s="31" t="s">
-        <v>116</v>
-      </c>
-      <c r="T3" s="31" t="s">
-        <v>117</v>
-      </c>
-      <c r="U3" s="31" t="s">
-        <v>118</v>
-      </c>
-      <c r="V3" s="31" t="s">
-        <v>119</v>
-      </c>
-      <c r="W3" s="31" t="s">
-        <v>120</v>
-      </c>
-      <c r="X3" s="31" t="s">
-        <v>121</v>
-      </c>
-      <c r="Y3" s="31" t="s">
-        <v>122</v>
-      </c>
-      <c r="Z3" s="31" t="s">
-        <v>100</v>
-      </c>
-      <c r="AA3" s="31" t="s">
-        <v>123</v>
-      </c>
-      <c r="AB3" s="31" t="s">
-        <v>124</v>
-      </c>
-      <c r="AC3" s="31" t="s">
-        <v>125</v>
-      </c>
-      <c r="AD3" s="31" t="s">
-        <v>126</v>
-      </c>
-      <c r="AE3" s="31" t="s">
-        <v>127</v>
-      </c>
-      <c r="AF3" s="31" t="s">
-        <v>128</v>
-      </c>
-      <c r="AG3" s="31" t="s">
-        <v>129</v>
-      </c>
-      <c r="AH3" s="31" t="s">
-        <v>130</v>
-      </c>
-      <c r="AI3" s="31" t="s">
-        <v>131</v>
-      </c>
-      <c r="AJ3" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="AK3" s="31" t="s">
-        <v>133</v>
-      </c>
-      <c r="AL3" s="31" t="s">
-        <v>134</v>
-      </c>
       <c r="AM3" s="31" t="s">
-        <v>135</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:39" s="13" customFormat="1">
       <c r="A4" s="30"/>
       <c r="B4" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="C4" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="D4" s="34"/>
       <c r="E4" s="34"/>
@@ -5029,47 +3780,47 @@
         <v>0</v>
       </c>
       <c r="G4" s="34" t="s">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="H4" s="35">
         <v>0</v>
       </c>
       <c r="I4" s="34" t="s">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="J4" s="38">
         <v>0</v>
       </c>
-      <c r="K4" s="48" t="s">
-        <v>136</v>
-      </c>
-      <c r="L4" s="49"/>
+      <c r="K4" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="L4" s="46"/>
       <c r="M4" s="34" t="s">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="N4" s="37" t="s">
-        <v>138</v>
+        <v>63</v>
       </c>
       <c r="O4" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="P4" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="Q4" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="R4" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="S4" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="T4" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="U4" s="34" t="s">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="V4" s="35">
         <v>0</v>
@@ -5078,10 +3829,10 @@
         <v>0</v>
       </c>
       <c r="X4" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="Y4" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="Z4" s="35">
         <v>0</v>
@@ -5096,13 +3847,13 @@
         <v>0</v>
       </c>
       <c r="AD4" s="34" t="s">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AE4" s="35">
         <v>0</v>
       </c>
       <c r="AF4" s="34" t="s">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AG4" s="34"/>
       <c r="AH4" s="35">
@@ -5110,7 +3861,7 @@
       </c>
       <c r="AI4" s="34"/>
       <c r="AJ4" s="37" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="AK4" s="34"/>
       <c r="AL4" s="34"/>
@@ -5119,10 +3870,10 @@
     <row r="5" spans="1:39" s="13" customFormat="1">
       <c r="A5" s="30"/>
       <c r="B5" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="C5" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="D5" s="34"/>
       <c r="E5" s="34"/>
@@ -5130,47 +3881,47 @@
         <v>0</v>
       </c>
       <c r="G5" s="34" t="s">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="H5" s="35">
         <v>0</v>
       </c>
       <c r="I5" s="34" t="s">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="J5" s="38">
         <v>0</v>
       </c>
-      <c r="K5" s="48" t="s">
-        <v>136</v>
-      </c>
-      <c r="L5" s="49"/>
+      <c r="K5" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="L5" s="46"/>
       <c r="M5" s="34" t="s">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="N5" s="37" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="O5" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="P5" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="Q5" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="R5" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="S5" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="T5" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="U5" s="34" t="s">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="V5" s="35">
         <v>0</v>
@@ -5179,10 +3930,10 @@
         <v>0</v>
       </c>
       <c r="X5" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="Y5" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="Z5" s="35">
         <v>0</v>
@@ -5197,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="AD5" s="34" t="s">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AE5" s="35">
         <v>0</v>
       </c>
       <c r="AF5" s="34" t="s">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AG5" s="34"/>
       <c r="AH5" s="35">
@@ -5211,7 +3962,7 @@
       </c>
       <c r="AI5" s="34"/>
       <c r="AJ5" s="37" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="AK5" s="34"/>
       <c r="AL5" s="34"/>
@@ -5220,10 +3971,10 @@
     <row r="6" spans="1:39" s="13" customFormat="1">
       <c r="A6" s="30"/>
       <c r="B6" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="C6" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="D6" s="34"/>
       <c r="E6" s="34"/>
@@ -5231,47 +3982,47 @@
         <v>0</v>
       </c>
       <c r="G6" s="34" t="s">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="H6" s="35">
         <v>0</v>
       </c>
       <c r="I6" s="34" t="s">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="J6" s="38">
         <v>0</v>
       </c>
-      <c r="K6" s="48" t="s">
-        <v>136</v>
-      </c>
-      <c r="L6" s="49"/>
+      <c r="K6" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="L6" s="46"/>
       <c r="M6" s="34" t="s">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="N6" s="37" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="O6" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="P6" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="Q6" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="R6" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="S6" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="T6" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="U6" s="34" t="s">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="V6" s="35">
         <v>0</v>
@@ -5280,10 +4031,10 @@
         <v>0</v>
       </c>
       <c r="X6" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="Y6" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="Z6" s="35">
         <v>0</v>
@@ -5298,13 +4049,13 @@
         <v>0</v>
       </c>
       <c r="AD6" s="34" t="s">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AE6" s="35">
         <v>0</v>
       </c>
       <c r="AF6" s="34" t="s">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AG6" s="34"/>
       <c r="AH6" s="35">
@@ -5312,7 +4063,7 @@
       </c>
       <c r="AI6" s="34"/>
       <c r="AJ6" s="37" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="AK6" s="34"/>
       <c r="AL6" s="34"/>
@@ -5321,10 +4072,10 @@
     <row r="7" spans="1:39" s="13" customFormat="1">
       <c r="A7" s="30"/>
       <c r="B7" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="C7" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="D7" s="34"/>
       <c r="E7" s="34"/>
@@ -5332,47 +4083,47 @@
         <v>0</v>
       </c>
       <c r="G7" s="34" t="s">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="H7" s="35">
         <v>0</v>
       </c>
       <c r="I7" s="34" t="s">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="J7" s="38">
         <v>0</v>
       </c>
-      <c r="K7" s="48" t="s">
-        <v>136</v>
-      </c>
-      <c r="L7" s="49"/>
+      <c r="K7" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="L7" s="46"/>
       <c r="M7" s="34" t="s">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="N7" s="37" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="O7" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="P7" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="Q7" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="R7" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="S7" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="T7" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="U7" s="34" t="s">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="V7" s="35">
         <v>0</v>
@@ -5381,10 +4132,10 @@
         <v>0</v>
       </c>
       <c r="X7" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="Y7" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="Z7" s="35">
         <v>0</v>
@@ -5399,13 +4150,13 @@
         <v>0</v>
       </c>
       <c r="AD7" s="34" t="s">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AE7" s="35">
         <v>0</v>
       </c>
       <c r="AF7" s="34" t="s">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AG7" s="34"/>
       <c r="AH7" s="35">
@@ -5413,7 +4164,7 @@
       </c>
       <c r="AI7" s="34"/>
       <c r="AJ7" s="37" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="AK7" s="34"/>
       <c r="AL7" s="34"/>
@@ -5422,10 +4173,10 @@
     <row r="8" spans="1:39" s="13" customFormat="1">
       <c r="A8" s="30"/>
       <c r="B8" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="C8" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="D8" s="34"/>
       <c r="E8" s="34"/>
@@ -5433,47 +4184,47 @@
         <v>0</v>
       </c>
       <c r="G8" s="34" t="s">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="H8" s="35">
         <v>0</v>
       </c>
       <c r="I8" s="34" t="s">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="J8" s="38">
         <v>0</v>
       </c>
-      <c r="K8" s="48" t="s">
-        <v>136</v>
-      </c>
-      <c r="L8" s="49"/>
+      <c r="K8" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="L8" s="46"/>
       <c r="M8" s="34" t="s">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="N8" s="37" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="O8" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="P8" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="Q8" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="R8" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="S8" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="T8" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="U8" s="34" t="s">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="V8" s="35">
         <v>0</v>
@@ -5482,10 +4233,10 @@
         <v>0</v>
       </c>
       <c r="X8" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="Y8" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="Z8" s="35">
         <v>0</v>
@@ -5500,13 +4251,13 @@
         <v>0</v>
       </c>
       <c r="AD8" s="34" t="s">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AE8" s="35">
         <v>0</v>
       </c>
       <c r="AF8" s="34" t="s">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AG8" s="34"/>
       <c r="AH8" s="35">
@@ -5514,7 +4265,7 @@
       </c>
       <c r="AI8" s="34"/>
       <c r="AJ8" s="37" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="AK8" s="34"/>
       <c r="AL8" s="34"/>
@@ -5523,10 +4274,10 @@
     <row r="9" spans="1:39" s="13" customFormat="1">
       <c r="A9" s="30"/>
       <c r="B9" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="C9" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="D9" s="34"/>
       <c r="E9" s="34"/>
@@ -5534,47 +4285,47 @@
         <v>0</v>
       </c>
       <c r="G9" s="34" t="s">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="H9" s="35">
         <v>0</v>
       </c>
       <c r="I9" s="34" t="s">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="J9" s="38">
         <v>0</v>
       </c>
-      <c r="K9" s="48" t="s">
-        <v>136</v>
-      </c>
-      <c r="L9" s="49"/>
+      <c r="K9" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="L9" s="46"/>
       <c r="M9" s="34" t="s">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="N9" s="37" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="O9" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="P9" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="Q9" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="R9" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="S9" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="T9" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="U9" s="34" t="s">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="V9" s="35">
         <v>0</v>
@@ -5583,10 +4334,10 @@
         <v>0</v>
       </c>
       <c r="X9" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="Y9" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="Z9" s="35">
         <v>0</v>
@@ -5601,13 +4352,13 @@
         <v>0</v>
       </c>
       <c r="AD9" s="34" t="s">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AE9" s="35">
         <v>0</v>
       </c>
       <c r="AF9" s="34" t="s">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AG9" s="34"/>
       <c r="AH9" s="35">
@@ -5615,7 +4366,7 @@
       </c>
       <c r="AI9" s="34"/>
       <c r="AJ9" s="37" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="AK9" s="34"/>
       <c r="AL9" s="34"/>
@@ -5624,10 +4375,10 @@
     <row r="10" spans="1:39" s="13" customFormat="1">
       <c r="A10" s="30"/>
       <c r="B10" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="C10" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="D10" s="34"/>
       <c r="E10" s="34"/>
@@ -5635,47 +4386,47 @@
         <v>0</v>
       </c>
       <c r="G10" s="34" t="s">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="H10" s="35">
         <v>0</v>
       </c>
       <c r="I10" s="34" t="s">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="J10" s="38">
         <v>0</v>
       </c>
-      <c r="K10" s="48" t="s">
-        <v>136</v>
-      </c>
-      <c r="L10" s="49"/>
+      <c r="K10" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="L10" s="46"/>
       <c r="M10" s="34" t="s">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="N10" s="37" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="O10" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="P10" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="Q10" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="R10" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="S10" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="T10" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="U10" s="34" t="s">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="V10" s="35">
         <v>0</v>
@@ -5684,10 +4435,10 @@
         <v>0</v>
       </c>
       <c r="X10" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="Y10" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="Z10" s="35">
         <v>0</v>
@@ -5702,13 +4453,13 @@
         <v>0</v>
       </c>
       <c r="AD10" s="34" t="s">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AE10" s="35">
         <v>0</v>
       </c>
       <c r="AF10" s="34" t="s">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AG10" s="34"/>
       <c r="AH10" s="35">
@@ -5716,7 +4467,7 @@
       </c>
       <c r="AI10" s="34"/>
       <c r="AJ10" s="37" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="AK10" s="34"/>
       <c r="AL10" s="34"/>
@@ -5725,10 +4476,10 @@
     <row r="11" spans="1:39" s="13" customFormat="1">
       <c r="A11" s="30"/>
       <c r="B11" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="C11" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="D11" s="34"/>
       <c r="E11" s="34"/>
@@ -5736,47 +4487,47 @@
         <v>0</v>
       </c>
       <c r="G11" s="34" t="s">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="H11" s="35">
         <v>0</v>
       </c>
       <c r="I11" s="34" t="s">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="J11" s="38">
         <v>0</v>
       </c>
-      <c r="K11" s="48" t="s">
-        <v>136</v>
-      </c>
-      <c r="L11" s="49"/>
+      <c r="K11" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="L11" s="46"/>
       <c r="M11" s="34" t="s">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="N11" s="37" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="O11" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="P11" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="Q11" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="R11" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="S11" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="T11" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="U11" s="34" t="s">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="V11" s="35">
         <v>0</v>
@@ -5785,10 +4536,10 @@
         <v>0</v>
       </c>
       <c r="X11" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="Y11" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="Z11" s="35">
         <v>0</v>
@@ -5803,13 +4554,13 @@
         <v>0</v>
       </c>
       <c r="AD11" s="34" t="s">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AE11" s="35">
         <v>0</v>
       </c>
       <c r="AF11" s="34" t="s">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AG11" s="34"/>
       <c r="AH11" s="35">
@@ -5817,7 +4568,7 @@
       </c>
       <c r="AI11" s="34"/>
       <c r="AJ11" s="37" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="AK11" s="34"/>
       <c r="AL11" s="34"/>
@@ -5826,10 +4577,10 @@
     <row r="12" spans="1:39" s="13" customFormat="1">
       <c r="A12" s="30"/>
       <c r="B12" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="C12" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="D12" s="34"/>
       <c r="E12" s="34"/>
@@ -5837,47 +4588,47 @@
         <v>0</v>
       </c>
       <c r="G12" s="34" t="s">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="H12" s="35">
         <v>0</v>
       </c>
       <c r="I12" s="34" t="s">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="J12" s="38">
         <v>0</v>
       </c>
-      <c r="K12" s="48" t="s">
-        <v>136</v>
-      </c>
-      <c r="L12" s="49"/>
+      <c r="K12" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="L12" s="46"/>
       <c r="M12" s="34" t="s">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="N12" s="37" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="O12" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="P12" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="Q12" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="R12" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="S12" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="T12" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="U12" s="34" t="s">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="V12" s="35">
         <v>0</v>
@@ -5886,10 +4637,10 @@
         <v>0</v>
       </c>
       <c r="X12" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="Y12" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="Z12" s="35">
         <v>0</v>
@@ -5904,13 +4655,13 @@
         <v>0</v>
       </c>
       <c r="AD12" s="34" t="s">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AE12" s="35">
         <v>0</v>
       </c>
       <c r="AF12" s="34" t="s">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AG12" s="34"/>
       <c r="AH12" s="35">
@@ -5918,7 +4669,7 @@
       </c>
       <c r="AI12" s="34"/>
       <c r="AJ12" s="37" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="AK12" s="34"/>
       <c r="AL12" s="34"/>
@@ -5927,10 +4678,10 @@
     <row r="13" spans="1:39" s="13" customFormat="1">
       <c r="A13" s="30"/>
       <c r="B13" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="C13" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="D13" s="34"/>
       <c r="E13" s="34"/>
@@ -5938,47 +4689,47 @@
         <v>0</v>
       </c>
       <c r="G13" s="34" t="s">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="H13" s="35">
         <v>0</v>
       </c>
       <c r="I13" s="34" t="s">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="J13" s="38">
         <v>0</v>
       </c>
-      <c r="K13" s="48" t="s">
-        <v>136</v>
-      </c>
-      <c r="L13" s="49"/>
+      <c r="K13" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="L13" s="46"/>
       <c r="M13" s="34" t="s">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="N13" s="37" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="O13" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="P13" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="Q13" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="R13" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="S13" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="T13" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="U13" s="34" t="s">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="V13" s="35">
         <v>0</v>
@@ -5987,10 +4738,10 @@
         <v>0</v>
       </c>
       <c r="X13" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="Y13" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="Z13" s="35">
         <v>0</v>
@@ -6005,13 +4756,13 @@
         <v>0</v>
       </c>
       <c r="AD13" s="34" t="s">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AE13" s="35">
         <v>0</v>
       </c>
       <c r="AF13" s="34" t="s">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AG13" s="34"/>
       <c r="AH13" s="35">
@@ -6019,7 +4770,7 @@
       </c>
       <c r="AI13" s="34"/>
       <c r="AJ13" s="37" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="AK13" s="34"/>
       <c r="AL13" s="34"/>
@@ -6028,10 +4779,10 @@
     <row r="14" spans="1:39" s="13" customFormat="1">
       <c r="A14" s="30"/>
       <c r="B14" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="C14" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="D14" s="34"/>
       <c r="E14" s="34"/>
@@ -6039,47 +4790,47 @@
         <v>0</v>
       </c>
       <c r="G14" s="34" t="s">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="H14" s="35">
         <v>0</v>
       </c>
       <c r="I14" s="34" t="s">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="J14" s="38">
         <v>0</v>
       </c>
-      <c r="K14" s="48" t="s">
-        <v>136</v>
-      </c>
-      <c r="L14" s="49"/>
+      <c r="K14" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="L14" s="46"/>
       <c r="M14" s="34" t="s">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="N14" s="37" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="O14" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="P14" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="Q14" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="R14" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="S14" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="T14" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="U14" s="34" t="s">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="V14" s="35">
         <v>0</v>
@@ -6088,10 +4839,10 @@
         <v>0</v>
       </c>
       <c r="X14" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="Y14" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="Z14" s="35">
         <v>0</v>
@@ -6106,13 +4857,13 @@
         <v>0</v>
       </c>
       <c r="AD14" s="34" t="s">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AE14" s="35">
         <v>0</v>
       </c>
       <c r="AF14" s="34" t="s">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AG14" s="34"/>
       <c r="AH14" s="35">
@@ -6120,7 +4871,7 @@
       </c>
       <c r="AI14" s="34"/>
       <c r="AJ14" s="37" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="AK14" s="34"/>
       <c r="AL14" s="34"/>
@@ -6129,10 +4880,10 @@
     <row r="15" spans="1:39" s="13" customFormat="1">
       <c r="A15" s="30"/>
       <c r="B15" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="C15" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="D15" s="34"/>
       <c r="E15" s="34"/>
@@ -6140,47 +4891,47 @@
         <v>0</v>
       </c>
       <c r="G15" s="34" t="s">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="H15" s="35">
         <v>0</v>
       </c>
       <c r="I15" s="34" t="s">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="J15" s="38">
         <v>0</v>
       </c>
-      <c r="K15" s="48" t="s">
-        <v>136</v>
-      </c>
-      <c r="L15" s="49"/>
+      <c r="K15" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="L15" s="46"/>
       <c r="M15" s="34" t="s">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="N15" s="37" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="O15" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="P15" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="Q15" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="R15" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="S15" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="T15" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="U15" s="34" t="s">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="V15" s="35">
         <v>0</v>
@@ -6189,10 +4940,10 @@
         <v>0</v>
       </c>
       <c r="X15" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="Y15" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="Z15" s="35">
         <v>0</v>
@@ -6207,13 +4958,13 @@
         <v>0</v>
       </c>
       <c r="AD15" s="34" t="s">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AE15" s="35">
         <v>0</v>
       </c>
       <c r="AF15" s="34" t="s">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AG15" s="34"/>
       <c r="AH15" s="35">
@@ -6221,7 +4972,7 @@
       </c>
       <c r="AI15" s="34"/>
       <c r="AJ15" s="37" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="AK15" s="34"/>
       <c r="AL15" s="34"/>
@@ -6230,10 +4981,10 @@
     <row r="16" spans="1:39" s="13" customFormat="1">
       <c r="A16" s="30"/>
       <c r="B16" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="C16" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="D16" s="34"/>
       <c r="E16" s="34"/>
@@ -6241,47 +4992,47 @@
         <v>0</v>
       </c>
       <c r="G16" s="34" t="s">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="H16" s="35">
         <v>0</v>
       </c>
       <c r="I16" s="34" t="s">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="J16" s="38">
         <v>0</v>
       </c>
-      <c r="K16" s="48" t="s">
-        <v>136</v>
-      </c>
-      <c r="L16" s="49"/>
+      <c r="K16" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="L16" s="46"/>
       <c r="M16" s="34" t="s">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="N16" s="37" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="O16" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="P16" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="Q16" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="R16" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="S16" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="T16" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="U16" s="34" t="s">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="V16" s="35">
         <v>0</v>
@@ -6290,10 +5041,10 @@
         <v>0</v>
       </c>
       <c r="X16" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="Y16" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="Z16" s="35">
         <v>0</v>
@@ -6308,13 +5059,13 @@
         <v>0</v>
       </c>
       <c r="AD16" s="34" t="s">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AE16" s="35">
         <v>0</v>
       </c>
       <c r="AF16" s="34" t="s">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AG16" s="34"/>
       <c r="AH16" s="35">
@@ -6322,7 +5073,7 @@
       </c>
       <c r="AI16" s="34"/>
       <c r="AJ16" s="37" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="AK16" s="34"/>
       <c r="AL16" s="34"/>
@@ -6331,10 +5082,10 @@
     <row r="17" spans="1:39" s="13" customFormat="1">
       <c r="A17" s="30"/>
       <c r="B17" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="C17" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="D17" s="34"/>
       <c r="E17" s="34"/>
@@ -6342,47 +5093,47 @@
         <v>0</v>
       </c>
       <c r="G17" s="34" t="s">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="H17" s="35">
         <v>0</v>
       </c>
       <c r="I17" s="34" t="s">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="J17" s="38">
         <v>0</v>
       </c>
-      <c r="K17" s="48" t="s">
-        <v>136</v>
-      </c>
-      <c r="L17" s="49"/>
+      <c r="K17" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="L17" s="46"/>
       <c r="M17" s="34" t="s">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="N17" s="37" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="O17" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="P17" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="Q17" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="R17" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="S17" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="T17" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="U17" s="34" t="s">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="V17" s="35">
         <v>0</v>
@@ -6391,10 +5142,10 @@
         <v>0</v>
       </c>
       <c r="X17" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="Y17" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="Z17" s="35">
         <v>0</v>
@@ -6409,13 +5160,13 @@
         <v>0</v>
       </c>
       <c r="AD17" s="34" t="s">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AE17" s="35">
         <v>0</v>
       </c>
       <c r="AF17" s="34" t="s">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AG17" s="34"/>
       <c r="AH17" s="35">
@@ -6423,7 +5174,7 @@
       </c>
       <c r="AI17" s="34"/>
       <c r="AJ17" s="37" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="AK17" s="34"/>
       <c r="AL17" s="34"/>
@@ -6432,10 +5183,10 @@
     <row r="18" spans="1:39" s="13" customFormat="1">
       <c r="A18" s="30"/>
       <c r="B18" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="C18" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="D18" s="34"/>
       <c r="E18" s="34"/>
@@ -6443,47 +5194,47 @@
         <v>0</v>
       </c>
       <c r="G18" s="34" t="s">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="H18" s="35">
         <v>0</v>
       </c>
       <c r="I18" s="34" t="s">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="J18" s="38">
         <v>0</v>
       </c>
-      <c r="K18" s="48" t="s">
-        <v>136</v>
-      </c>
-      <c r="L18" s="49"/>
+      <c r="K18" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="L18" s="46"/>
       <c r="M18" s="34" t="s">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="N18" s="37" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="O18" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="P18" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="Q18" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="R18" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="S18" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="T18" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="U18" s="34" t="s">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="V18" s="35">
         <v>0</v>
@@ -6492,10 +5243,10 @@
         <v>0</v>
       </c>
       <c r="X18" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="Y18" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="Z18" s="35">
         <v>0</v>
@@ -6510,13 +5261,13 @@
         <v>0</v>
       </c>
       <c r="AD18" s="34" t="s">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AE18" s="35">
         <v>0</v>
       </c>
       <c r="AF18" s="34" t="s">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AG18" s="34"/>
       <c r="AH18" s="35">
@@ -6524,7 +5275,7 @@
       </c>
       <c r="AI18" s="34"/>
       <c r="AJ18" s="37" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="AK18" s="34"/>
       <c r="AL18" s="34"/>
@@ -6533,10 +5284,10 @@
     <row r="19" spans="1:39" s="13" customFormat="1">
       <c r="A19" s="30"/>
       <c r="B19" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="C19" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="D19" s="34"/>
       <c r="E19" s="34"/>
@@ -6544,47 +5295,47 @@
         <v>0</v>
       </c>
       <c r="G19" s="34" t="s">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="H19" s="35">
         <v>0</v>
       </c>
       <c r="I19" s="34" t="s">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="J19" s="38">
         <v>0</v>
       </c>
-      <c r="K19" s="48" t="s">
-        <v>136</v>
-      </c>
-      <c r="L19" s="49"/>
+      <c r="K19" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="L19" s="46"/>
       <c r="M19" s="34" t="s">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="N19" s="37" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="O19" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="P19" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="Q19" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="R19" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="S19" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="T19" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="U19" s="34" t="s">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="V19" s="35">
         <v>0</v>
@@ -6593,10 +5344,10 @@
         <v>0</v>
       </c>
       <c r="X19" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="Y19" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="Z19" s="35">
         <v>0</v>
@@ -6611,13 +5362,13 @@
         <v>0</v>
       </c>
       <c r="AD19" s="34" t="s">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AE19" s="35">
         <v>0</v>
       </c>
       <c r="AF19" s="34" t="s">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AG19" s="34"/>
       <c r="AH19" s="35">
@@ -6625,7 +5376,7 @@
       </c>
       <c r="AI19" s="34"/>
       <c r="AJ19" s="37" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="AK19" s="34"/>
       <c r="AL19" s="34"/>
@@ -6634,10 +5385,10 @@
     <row r="20" spans="1:39" s="13" customFormat="1">
       <c r="A20" s="30"/>
       <c r="B20" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="C20" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="D20" s="34"/>
       <c r="E20" s="34"/>
@@ -6645,47 +5396,47 @@
         <v>0</v>
       </c>
       <c r="G20" s="34" t="s">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="H20" s="35">
         <v>0</v>
       </c>
       <c r="I20" s="34" t="s">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="J20" s="38">
         <v>0</v>
       </c>
-      <c r="K20" s="48" t="s">
-        <v>136</v>
-      </c>
-      <c r="L20" s="49"/>
+      <c r="K20" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="L20" s="46"/>
       <c r="M20" s="34" t="s">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="N20" s="37" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="O20" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="P20" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="Q20" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="R20" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="S20" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="T20" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="U20" s="34" t="s">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="V20" s="35">
         <v>0</v>
@@ -6694,10 +5445,10 @@
         <v>0</v>
       </c>
       <c r="X20" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="Y20" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="Z20" s="35">
         <v>0</v>
@@ -6712,13 +5463,13 @@
         <v>0</v>
       </c>
       <c r="AD20" s="34" t="s">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AE20" s="35">
         <v>0</v>
       </c>
       <c r="AF20" s="34" t="s">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AG20" s="34"/>
       <c r="AH20" s="35">
@@ -6726,7 +5477,7 @@
       </c>
       <c r="AI20" s="34"/>
       <c r="AJ20" s="37" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="AK20" s="34"/>
       <c r="AL20" s="34"/>
@@ -6735,10 +5486,10 @@
     <row r="21" spans="1:39" s="13" customFormat="1">
       <c r="A21" s="30"/>
       <c r="B21" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="C21" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="D21" s="34"/>
       <c r="E21" s="34"/>
@@ -6746,47 +5497,47 @@
         <v>0</v>
       </c>
       <c r="G21" s="34" t="s">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="H21" s="35">
         <v>0</v>
       </c>
       <c r="I21" s="34" t="s">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="J21" s="38">
         <v>0</v>
       </c>
-      <c r="K21" s="48" t="s">
-        <v>136</v>
-      </c>
-      <c r="L21" s="49"/>
+      <c r="K21" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="L21" s="46"/>
       <c r="M21" s="34" t="s">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="N21" s="37" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="O21" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="P21" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="Q21" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="R21" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="S21" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="T21" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="U21" s="34" t="s">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="V21" s="35">
         <v>0</v>
@@ -6795,10 +5546,10 @@
         <v>0</v>
       </c>
       <c r="X21" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="Y21" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="Z21" s="35">
         <v>0</v>
@@ -6813,13 +5564,13 @@
         <v>0</v>
       </c>
       <c r="AD21" s="34" t="s">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AE21" s="35">
         <v>0</v>
       </c>
       <c r="AF21" s="34" t="s">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AG21" s="34"/>
       <c r="AH21" s="35">
@@ -6827,7 +5578,7 @@
       </c>
       <c r="AI21" s="34"/>
       <c r="AJ21" s="37" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="AK21" s="34"/>
       <c r="AL21" s="34"/>
@@ -6836,10 +5587,10 @@
     <row r="22" spans="1:39" s="13" customFormat="1">
       <c r="A22" s="30"/>
       <c r="B22" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="C22" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="D22" s="34"/>
       <c r="E22" s="34"/>
@@ -6847,47 +5598,47 @@
         <v>0</v>
       </c>
       <c r="G22" s="34" t="s">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="H22" s="35">
         <v>0</v>
       </c>
       <c r="I22" s="34" t="s">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="J22" s="38">
         <v>0</v>
       </c>
-      <c r="K22" s="48" t="s">
-        <v>136</v>
-      </c>
-      <c r="L22" s="49"/>
+      <c r="K22" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="L22" s="46"/>
       <c r="M22" s="34" t="s">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="N22" s="37" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="O22" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="P22" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="Q22" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="R22" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="S22" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="T22" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="U22" s="34" t="s">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="V22" s="35">
         <v>0</v>
@@ -6896,10 +5647,10 @@
         <v>0</v>
       </c>
       <c r="X22" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="Y22" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="Z22" s="35">
         <v>0</v>
@@ -6914,13 +5665,13 @@
         <v>0</v>
       </c>
       <c r="AD22" s="34" t="s">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AE22" s="35">
         <v>0</v>
       </c>
       <c r="AF22" s="34" t="s">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AG22" s="34"/>
       <c r="AH22" s="35">
@@ -6928,7 +5679,7 @@
       </c>
       <c r="AI22" s="34"/>
       <c r="AJ22" s="37" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="AK22" s="34"/>
       <c r="AL22" s="34"/>
@@ -6937,10 +5688,10 @@
     <row r="23" spans="1:39" s="13" customFormat="1">
       <c r="A23" s="30"/>
       <c r="B23" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="C23" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="D23" s="34"/>
       <c r="E23" s="34"/>
@@ -6948,47 +5699,47 @@
         <v>0</v>
       </c>
       <c r="G23" s="34" t="s">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="H23" s="35">
         <v>0</v>
       </c>
       <c r="I23" s="34" t="s">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="J23" s="38">
         <v>0</v>
       </c>
-      <c r="K23" s="48" t="s">
-        <v>136</v>
-      </c>
-      <c r="L23" s="49"/>
+      <c r="K23" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="L23" s="46"/>
       <c r="M23" s="34" t="s">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="N23" s="37" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="O23" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="P23" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="Q23" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="R23" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="S23" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="T23" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="U23" s="34" t="s">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="V23" s="35">
         <v>0</v>
@@ -6997,10 +5748,10 @@
         <v>0</v>
       </c>
       <c r="X23" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="Y23" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="Z23" s="35">
         <v>0</v>
@@ -7015,13 +5766,13 @@
         <v>0</v>
       </c>
       <c r="AD23" s="34" t="s">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AE23" s="35">
         <v>0</v>
       </c>
       <c r="AF23" s="34" t="s">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AG23" s="34"/>
       <c r="AH23" s="35">
@@ -7029,7 +5780,7 @@
       </c>
       <c r="AI23" s="34"/>
       <c r="AJ23" s="37" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="AK23" s="34"/>
       <c r="AL23" s="34"/>
@@ -7038,10 +5789,10 @@
     <row r="24" spans="1:39" s="13" customFormat="1">
       <c r="A24" s="30"/>
       <c r="B24" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="C24" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="D24" s="34"/>
       <c r="E24" s="34"/>
@@ -7049,47 +5800,47 @@
         <v>0</v>
       </c>
       <c r="G24" s="34" t="s">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="H24" s="35">
         <v>0</v>
       </c>
       <c r="I24" s="34" t="s">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="J24" s="38">
         <v>0</v>
       </c>
-      <c r="K24" s="48" t="s">
-        <v>136</v>
-      </c>
-      <c r="L24" s="49"/>
+      <c r="K24" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="L24" s="46"/>
       <c r="M24" s="34" t="s">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="N24" s="37" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="O24" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="P24" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="Q24" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="R24" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="S24" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="T24" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="U24" s="34" t="s">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="V24" s="35">
         <v>0</v>
@@ -7098,10 +5849,10 @@
         <v>0</v>
       </c>
       <c r="X24" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="Y24" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="Z24" s="35">
         <v>0</v>
@@ -7116,13 +5867,13 @@
         <v>0</v>
       </c>
       <c r="AD24" s="34" t="s">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AE24" s="35">
         <v>0</v>
       </c>
       <c r="AF24" s="34" t="s">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AG24" s="34"/>
       <c r="AH24" s="35">
@@ -7130,7 +5881,7 @@
       </c>
       <c r="AI24" s="34"/>
       <c r="AJ24" s="37" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="AK24" s="34"/>
       <c r="AL24" s="34"/>
@@ -7139,10 +5890,10 @@
     <row r="25" spans="1:39" s="13" customFormat="1">
       <c r="A25" s="30"/>
       <c r="B25" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="C25" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="D25" s="34"/>
       <c r="E25" s="34"/>
@@ -7150,47 +5901,47 @@
         <v>0</v>
       </c>
       <c r="G25" s="34" t="s">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="H25" s="35">
         <v>0</v>
       </c>
       <c r="I25" s="34" t="s">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="J25" s="38">
         <v>0</v>
       </c>
-      <c r="K25" s="48" t="s">
-        <v>136</v>
-      </c>
-      <c r="L25" s="49"/>
+      <c r="K25" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="L25" s="46"/>
       <c r="M25" s="34" t="s">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="N25" s="37" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="O25" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="P25" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="Q25" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="R25" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="S25" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="T25" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="U25" s="34" t="s">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="V25" s="35">
         <v>0</v>
@@ -7199,10 +5950,10 @@
         <v>0</v>
       </c>
       <c r="X25" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="Y25" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="Z25" s="35">
         <v>0</v>
@@ -7217,13 +5968,13 @@
         <v>0</v>
       </c>
       <c r="AD25" s="34" t="s">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AE25" s="35">
         <v>0</v>
       </c>
       <c r="AF25" s="34" t="s">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AG25" s="34"/>
       <c r="AH25" s="35">
@@ -7231,7 +5982,7 @@
       </c>
       <c r="AI25" s="34"/>
       <c r="AJ25" s="37" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="AK25" s="34"/>
       <c r="AL25" s="34"/>
@@ -7240,10 +5991,10 @@
     <row r="26" spans="1:39" s="13" customFormat="1">
       <c r="A26" s="30"/>
       <c r="B26" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="C26" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="D26" s="34"/>
       <c r="E26" s="34"/>
@@ -7251,47 +6002,47 @@
         <v>0</v>
       </c>
       <c r="G26" s="34" t="s">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="H26" s="35">
         <v>0</v>
       </c>
       <c r="I26" s="34" t="s">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="J26" s="38">
         <v>0</v>
       </c>
-      <c r="K26" s="48" t="s">
-        <v>136</v>
-      </c>
-      <c r="L26" s="49"/>
+      <c r="K26" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="L26" s="46"/>
       <c r="M26" s="34" t="s">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="N26" s="37" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="O26" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="P26" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="Q26" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="R26" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="S26" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="T26" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="U26" s="34" t="s">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="V26" s="35">
         <v>0</v>
@@ -7300,10 +6051,10 @@
         <v>0</v>
       </c>
       <c r="X26" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="Y26" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="Z26" s="35">
         <v>0</v>
@@ -7318,13 +6069,13 @@
         <v>0</v>
       </c>
       <c r="AD26" s="34" t="s">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AE26" s="35">
         <v>0</v>
       </c>
       <c r="AF26" s="34" t="s">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AG26" s="34"/>
       <c r="AH26" s="35">
@@ -7332,7 +6083,7 @@
       </c>
       <c r="AI26" s="34"/>
       <c r="AJ26" s="37" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="AK26" s="34"/>
       <c r="AL26" s="34"/>
@@ -7341,10 +6092,10 @@
     <row r="27" spans="1:39" s="13" customFormat="1">
       <c r="A27" s="30"/>
       <c r="B27" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="C27" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="D27" s="34"/>
       <c r="E27" s="34"/>
@@ -7352,47 +6103,47 @@
         <v>0</v>
       </c>
       <c r="G27" s="34" t="s">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="H27" s="35">
         <v>0</v>
       </c>
       <c r="I27" s="34" t="s">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="J27" s="38">
         <v>0</v>
       </c>
-      <c r="K27" s="48" t="s">
-        <v>136</v>
-      </c>
-      <c r="L27" s="49"/>
+      <c r="K27" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="L27" s="46"/>
       <c r="M27" s="34" t="s">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="N27" s="37" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="O27" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="P27" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="Q27" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="R27" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="S27" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="T27" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="U27" s="34" t="s">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="V27" s="35">
         <v>0</v>
@@ -7401,10 +6152,10 @@
         <v>0</v>
       </c>
       <c r="X27" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="Y27" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="Z27" s="35">
         <v>0</v>
@@ -7419,13 +6170,13 @@
         <v>0</v>
       </c>
       <c r="AD27" s="34" t="s">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AE27" s="35">
         <v>0</v>
       </c>
       <c r="AF27" s="34" t="s">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AG27" s="34"/>
       <c r="AH27" s="35">
@@ -7433,7 +6184,7 @@
       </c>
       <c r="AI27" s="34"/>
       <c r="AJ27" s="37" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="AK27" s="34"/>
       <c r="AL27" s="34"/>
@@ -7442,10 +6193,10 @@
     <row r="28" spans="1:39" s="13" customFormat="1">
       <c r="A28" s="30"/>
       <c r="B28" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="C28" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="D28" s="34"/>
       <c r="E28" s="34"/>
@@ -7453,47 +6204,47 @@
         <v>0</v>
       </c>
       <c r="G28" s="34" t="s">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="H28" s="35">
         <v>0</v>
       </c>
       <c r="I28" s="34" t="s">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="J28" s="38">
         <v>0</v>
       </c>
-      <c r="K28" s="48" t="s">
-        <v>136</v>
-      </c>
-      <c r="L28" s="49"/>
+      <c r="K28" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="L28" s="46"/>
       <c r="M28" s="34" t="s">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="N28" s="37" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="O28" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="P28" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="Q28" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="R28" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="S28" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="T28" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="U28" s="34" t="s">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="V28" s="35">
         <v>0</v>
@@ -7502,10 +6253,10 @@
         <v>0</v>
       </c>
       <c r="X28" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="Y28" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="Z28" s="35">
         <v>0</v>
@@ -7520,13 +6271,13 @@
         <v>0</v>
       </c>
       <c r="AD28" s="34" t="s">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AE28" s="35">
         <v>0</v>
       </c>
       <c r="AF28" s="34" t="s">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AG28" s="34"/>
       <c r="AH28" s="35">
@@ -7534,7 +6285,7 @@
       </c>
       <c r="AI28" s="34"/>
       <c r="AJ28" s="37" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="AK28" s="34"/>
       <c r="AL28" s="34"/>
@@ -7543,10 +6294,10 @@
     <row r="29" spans="1:39" s="13" customFormat="1">
       <c r="A29" s="30"/>
       <c r="B29" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="C29" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="D29" s="34"/>
       <c r="E29" s="34"/>
@@ -7554,47 +6305,47 @@
         <v>0</v>
       </c>
       <c r="G29" s="34" t="s">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="H29" s="35">
         <v>0</v>
       </c>
       <c r="I29" s="34" t="s">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="J29" s="38">
         <v>0</v>
       </c>
-      <c r="K29" s="48" t="s">
-        <v>136</v>
-      </c>
-      <c r="L29" s="49"/>
+      <c r="K29" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="L29" s="46"/>
       <c r="M29" s="34" t="s">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="N29" s="37" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="O29" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="P29" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="Q29" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="R29" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="S29" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="T29" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="U29" s="34" t="s">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="V29" s="35">
         <v>0</v>
@@ -7603,10 +6354,10 @@
         <v>0</v>
       </c>
       <c r="X29" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="Y29" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="Z29" s="35">
         <v>0</v>
@@ -7621,13 +6372,13 @@
         <v>0</v>
       </c>
       <c r="AD29" s="34" t="s">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AE29" s="35">
         <v>0</v>
       </c>
       <c r="AF29" s="34" t="s">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AG29" s="34"/>
       <c r="AH29" s="35">
@@ -7635,7 +6386,7 @@
       </c>
       <c r="AI29" s="34"/>
       <c r="AJ29" s="37" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="AK29" s="34"/>
       <c r="AL29" s="34"/>
@@ -7644,10 +6395,10 @@
     <row r="30" spans="1:39" s="13" customFormat="1">
       <c r="A30" s="30"/>
       <c r="B30" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="C30" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="D30" s="34"/>
       <c r="E30" s="34"/>
@@ -7655,47 +6406,47 @@
         <v>0</v>
       </c>
       <c r="G30" s="34" t="s">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="H30" s="35">
         <v>0</v>
       </c>
       <c r="I30" s="34" t="s">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="J30" s="38">
         <v>0</v>
       </c>
-      <c r="K30" s="48" t="s">
-        <v>136</v>
-      </c>
-      <c r="L30" s="49"/>
+      <c r="K30" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="L30" s="46"/>
       <c r="M30" s="34" t="s">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="N30" s="37" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="O30" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="P30" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="Q30" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="R30" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="S30" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="T30" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="U30" s="34" t="s">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="V30" s="35">
         <v>0</v>
@@ -7704,10 +6455,10 @@
         <v>0</v>
       </c>
       <c r="X30" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="Y30" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="Z30" s="35">
         <v>0</v>
@@ -7722,13 +6473,13 @@
         <v>0</v>
       </c>
       <c r="AD30" s="34" t="s">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AE30" s="35">
         <v>0</v>
       </c>
       <c r="AF30" s="34" t="s">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AG30" s="34"/>
       <c r="AH30" s="35">
@@ -7736,7 +6487,7 @@
       </c>
       <c r="AI30" s="34"/>
       <c r="AJ30" s="37" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="AK30" s="34"/>
       <c r="AL30" s="34"/>
@@ -7745,10 +6496,10 @@
     <row r="31" spans="1:39" s="13" customFormat="1">
       <c r="A31" s="30"/>
       <c r="B31" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="C31" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="D31" s="34"/>
       <c r="E31" s="34"/>
@@ -7756,47 +6507,47 @@
         <v>0</v>
       </c>
       <c r="G31" s="34" t="s">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="H31" s="35">
         <v>0</v>
       </c>
       <c r="I31" s="34" t="s">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="J31" s="38">
         <v>0</v>
       </c>
-      <c r="K31" s="48" t="s">
-        <v>136</v>
-      </c>
-      <c r="L31" s="49"/>
+      <c r="K31" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="L31" s="46"/>
       <c r="M31" s="34" t="s">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="N31" s="37" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="O31" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="P31" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="Q31" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="R31" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="S31" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="T31" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="U31" s="34" t="s">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="V31" s="35">
         <v>0</v>
@@ -7805,10 +6556,10 @@
         <v>0</v>
       </c>
       <c r="X31" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="Y31" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="Z31" s="35">
         <v>0</v>
@@ -7823,13 +6574,13 @@
         <v>0</v>
       </c>
       <c r="AD31" s="34" t="s">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AE31" s="35">
         <v>0</v>
       </c>
       <c r="AF31" s="34" t="s">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AG31" s="34"/>
       <c r="AH31" s="35">
@@ -7837,7 +6588,7 @@
       </c>
       <c r="AI31" s="34"/>
       <c r="AJ31" s="37" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="AK31" s="34"/>
       <c r="AL31" s="34"/>
@@ -7846,10 +6597,10 @@
     <row r="32" spans="1:39" s="13" customFormat="1">
       <c r="A32" s="30"/>
       <c r="B32" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="C32" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="D32" s="34"/>
       <c r="E32" s="34"/>
@@ -7857,47 +6608,47 @@
         <v>0</v>
       </c>
       <c r="G32" s="34" t="s">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="H32" s="35">
         <v>0</v>
       </c>
       <c r="I32" s="34" t="s">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="J32" s="38">
         <v>0</v>
       </c>
-      <c r="K32" s="48" t="s">
-        <v>136</v>
-      </c>
-      <c r="L32" s="49"/>
+      <c r="K32" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="L32" s="46"/>
       <c r="M32" s="34" t="s">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="N32" s="37" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="O32" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="P32" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="Q32" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="R32" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="S32" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="T32" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="U32" s="34" t="s">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="V32" s="35">
         <v>0</v>
@@ -7906,10 +6657,10 @@
         <v>0</v>
       </c>
       <c r="X32" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="Y32" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="Z32" s="35">
         <v>0</v>
@@ -7924,13 +6675,13 @@
         <v>0</v>
       </c>
       <c r="AD32" s="34" t="s">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AE32" s="35">
         <v>0</v>
       </c>
       <c r="AF32" s="34" t="s">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AG32" s="34"/>
       <c r="AH32" s="35">
@@ -7938,7 +6689,7 @@
       </c>
       <c r="AI32" s="34"/>
       <c r="AJ32" s="37" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="AK32" s="34"/>
       <c r="AL32" s="34"/>
@@ -7947,10 +6698,10 @@
     <row r="33" spans="1:39" s="13" customFormat="1">
       <c r="A33" s="30"/>
       <c r="B33" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="C33" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="D33" s="34"/>
       <c r="E33" s="34"/>
@@ -7958,47 +6709,47 @@
         <v>0</v>
       </c>
       <c r="G33" s="34" t="s">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="H33" s="35">
         <v>0</v>
       </c>
       <c r="I33" s="34" t="s">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="J33" s="38">
         <v>0</v>
       </c>
-      <c r="K33" s="48" t="s">
-        <v>136</v>
-      </c>
-      <c r="L33" s="49"/>
+      <c r="K33" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="L33" s="46"/>
       <c r="M33" s="34" t="s">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="N33" s="37" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="O33" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="P33" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="Q33" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="R33" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="S33" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="T33" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="U33" s="34" t="s">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="V33" s="35">
         <v>0</v>
@@ -8007,10 +6758,10 @@
         <v>0</v>
       </c>
       <c r="X33" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="Y33" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="Z33" s="35">
         <v>0</v>
@@ -8025,13 +6776,13 @@
         <v>0</v>
       </c>
       <c r="AD33" s="34" t="s">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AE33" s="35">
         <v>0</v>
       </c>
       <c r="AF33" s="34" t="s">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AG33" s="34"/>
       <c r="AH33" s="35">
@@ -8039,7 +6790,7 @@
       </c>
       <c r="AI33" s="34"/>
       <c r="AJ33" s="37" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="AK33" s="34"/>
       <c r="AL33" s="34"/>
@@ -8048,10 +6799,10 @@
     <row r="34" spans="1:39" s="13" customFormat="1">
       <c r="A34" s="30"/>
       <c r="B34" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="C34" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="D34" s="34"/>
       <c r="E34" s="34"/>
@@ -8059,47 +6810,47 @@
         <v>0</v>
       </c>
       <c r="G34" s="34" t="s">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="H34" s="35">
         <v>0</v>
       </c>
       <c r="I34" s="34" t="s">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="J34" s="38">
         <v>0</v>
       </c>
-      <c r="K34" s="48" t="s">
-        <v>136</v>
-      </c>
-      <c r="L34" s="49"/>
+      <c r="K34" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="L34" s="46"/>
       <c r="M34" s="34" t="s">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="N34" s="37" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="O34" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="P34" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="Q34" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="R34" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="S34" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="T34" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="U34" s="34" t="s">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="V34" s="35">
         <v>0</v>
@@ -8108,10 +6859,10 @@
         <v>0</v>
       </c>
       <c r="X34" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="Y34" s="34" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="Z34" s="35">
         <v>0</v>
@@ -8126,13 +6877,13 @@
         <v>0</v>
       </c>
       <c r="AD34" s="34" t="s">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AE34" s="35">
         <v>0</v>
       </c>
       <c r="AF34" s="34" t="s">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AG34" s="34"/>
       <c r="AH34" s="35">
@@ -8140,7 +6891,7 @@
       </c>
       <c r="AI34" s="34"/>
       <c r="AJ34" s="37" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="AK34" s="34"/>
       <c r="AL34" s="34"/>
@@ -8148,23 +6899,20 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="B1:K1"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="K3:L3"/>
     <mergeCell ref="B2:K2"/>
-    <mergeCell ref="K23:L23"/>
     <mergeCell ref="K14:L14"/>
     <mergeCell ref="K17:L17"/>
     <mergeCell ref="K7:L7"/>
+    <mergeCell ref="B1:K1"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="K3:L3"/>
     <mergeCell ref="K15:L15"/>
     <mergeCell ref="K33:L33"/>
     <mergeCell ref="K9:L9"/>
     <mergeCell ref="K5:L5"/>
+    <mergeCell ref="K4:L4"/>
     <mergeCell ref="K26:L26"/>
     <mergeCell ref="K21:L21"/>
     <mergeCell ref="K29:L29"/>
@@ -8175,14 +6923,1275 @@
     <mergeCell ref="K22:L22"/>
     <mergeCell ref="K12:L12"/>
     <mergeCell ref="K8:L8"/>
-    <mergeCell ref="K6:L6"/>
     <mergeCell ref="K27:L27"/>
     <mergeCell ref="K16:L16"/>
     <mergeCell ref="K30:L30"/>
     <mergeCell ref="K25:L25"/>
     <mergeCell ref="K34:L34"/>
     <mergeCell ref="K24:L24"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="K18:L18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:F72"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="4.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.77734375" customWidth="1"/>
+    <col min="5" max="5" width="10.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="2">
+        <v>12000</v>
+      </c>
+      <c r="F2" s="7">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="2">
+        <v>25000</v>
+      </c>
+      <c r="F3" s="7">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="2">
+        <v>35000</v>
+      </c>
+      <c r="F4" s="7">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="2">
+        <v>12000</v>
+      </c>
+      <c r="F5" s="7">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="2">
+        <v>15000</v>
+      </c>
+      <c r="F6" s="7">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="2">
+        <v>20000</v>
+      </c>
+      <c r="F7" s="7">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="2">
+        <v>15000</v>
+      </c>
+      <c r="F8" s="7">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="2">
+        <v>20000</v>
+      </c>
+      <c r="F9" s="7">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="2">
+        <v>30000</v>
+      </c>
+      <c r="F10" s="7">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="2">
+        <v>35000</v>
+      </c>
+      <c r="F11" s="7">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="2">
+        <v>12000</v>
+      </c>
+      <c r="F12" s="7">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="2">
+        <v>25000</v>
+      </c>
+      <c r="F13" s="7">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="2">
+        <v>35000</v>
+      </c>
+      <c r="F14" s="7">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="2">
+        <v>12000</v>
+      </c>
+      <c r="F15" s="7">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="2">
+        <v>25000</v>
+      </c>
+      <c r="F16" s="7">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="2">
+        <v>35000</v>
+      </c>
+      <c r="F17" s="7">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="2">
+        <v>16000</v>
+      </c>
+      <c r="F18" s="7">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="2">
+        <v>20000</v>
+      </c>
+      <c r="F19" s="7">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="2">
+        <v>30000</v>
+      </c>
+      <c r="F20" s="7">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="2">
+        <v>16000</v>
+      </c>
+      <c r="F21" s="7">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" s="2">
+        <v>20000</v>
+      </c>
+      <c r="F22" s="7">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" s="2">
+        <v>30000</v>
+      </c>
+      <c r="F23" s="7">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" s="2">
+        <v>15000</v>
+      </c>
+      <c r="F24" s="7">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="2">
+        <v>20000</v>
+      </c>
+      <c r="F25" s="7">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26" s="2">
+        <v>25000</v>
+      </c>
+      <c r="F26" s="7">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E27" s="2">
+        <v>55000</v>
+      </c>
+      <c r="F27" s="7">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E28" s="2">
+        <v>70000</v>
+      </c>
+      <c r="F28" s="7">
+        <v>6.5000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29" s="2">
+        <v>100000</v>
+      </c>
+      <c r="F29" s="7">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30" s="2">
+        <v>55000</v>
+      </c>
+      <c r="F30" s="7">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E31" s="2">
+        <v>70000</v>
+      </c>
+      <c r="F31" s="7">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E32" s="2">
+        <v>100000</v>
+      </c>
+      <c r="F32" s="7">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E33" s="2">
+        <v>55000</v>
+      </c>
+      <c r="F33" s="7">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E34" s="2">
+        <v>70000</v>
+      </c>
+      <c r="F34" s="7">
+        <v>5.5E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35" s="2">
+        <v>100000</v>
+      </c>
+      <c r="F35" s="7">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E36" s="2">
+        <v>14000</v>
+      </c>
+      <c r="F36" s="7">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E37" s="2">
+        <v>16000</v>
+      </c>
+      <c r="F37" s="7">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E38" s="2">
+        <v>18000</v>
+      </c>
+      <c r="F38" s="7">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E39" s="2">
+        <v>25000</v>
+      </c>
+      <c r="F39" s="7">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E40" s="2">
+        <v>15000</v>
+      </c>
+      <c r="F40" s="7">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E41" s="2">
+        <v>0</v>
+      </c>
+      <c r="F41" s="7">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E42" s="2">
+        <v>30000</v>
+      </c>
+      <c r="F42" s="7">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E43" s="2">
+        <v>60000</v>
+      </c>
+      <c r="F43" s="7">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E44" s="2">
+        <v>85000</v>
+      </c>
+      <c r="F44" s="7">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E45" s="2">
+        <v>30000</v>
+      </c>
+      <c r="F45" s="7">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E46" s="2">
+        <v>60000</v>
+      </c>
+      <c r="F46" s="7">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E47" s="2">
+        <v>85000</v>
+      </c>
+      <c r="F47" s="7">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E48" s="2">
+        <v>52000</v>
+      </c>
+      <c r="F48" s="7">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E49" s="2">
+        <v>60000</v>
+      </c>
+      <c r="F49" s="7">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E50" s="2">
+        <v>90000</v>
+      </c>
+      <c r="F50" s="7">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E51" s="2">
+        <v>52000</v>
+      </c>
+      <c r="F51" s="7">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E52" s="2">
+        <v>60000</v>
+      </c>
+      <c r="F52" s="7">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E53" s="2">
+        <v>90000</v>
+      </c>
+      <c r="F53" s="7">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E54" s="2">
+        <v>52000</v>
+      </c>
+      <c r="F54" s="7">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E55" s="2">
+        <v>60000</v>
+      </c>
+      <c r="F55" s="7">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E56" s="2">
+        <v>90000</v>
+      </c>
+      <c r="F56" s="7">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E57" s="2">
+        <v>52000</v>
+      </c>
+      <c r="F57" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E58" s="2">
+        <v>60000</v>
+      </c>
+      <c r="F58" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E59" s="2">
+        <v>90000</v>
+      </c>
+      <c r="F59" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="3"/>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="3"/>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="3"/>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="3"/>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="3"/>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="3"/>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="3"/>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="3"/>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="3"/>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" s="3"/>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" s="3"/>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" s="3"/>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="19.44140625" customWidth="1"/>
+    <col min="3" max="3" width="17.109375" customWidth="1"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/Draft.xlsx
+++ b/Draft.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="4" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="1" activeTab="3" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Opis+przykłady" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Raport Spedytorzy - przyklad" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Raport Spedytor - przyklad" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="Stawki prowizji" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="nowa" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="wyplaty" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -689,8 +689,8 @@
   </sheetPr>
   <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -1435,8 +1435,8 @@
   </sheetPr>
   <dimension ref="A1:O39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4:G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -1878,7 +1878,7 @@
         </is>
       </c>
       <c r="G4" s="39" t="n">
-        <v>1000</v>
+        <v>30000</v>
       </c>
       <c r="H4" s="32" t="inlineStr">
         <is>
@@ -1929,7 +1929,7 @@
         </is>
       </c>
       <c r="G5" s="39" t="n">
-        <v>1000</v>
+        <v>80000</v>
       </c>
       <c r="H5" s="32" t="inlineStr">
         <is>
@@ -1980,7 +1980,7 @@
         </is>
       </c>
       <c r="G6" s="39" t="n">
-        <v>1000</v>
+        <v>30973</v>
       </c>
       <c r="H6" s="32" t="inlineStr">
         <is>
@@ -2031,7 +2031,7 @@
         </is>
       </c>
       <c r="G7" s="39" t="n">
-        <v>1000</v>
+        <v>80973</v>
       </c>
       <c r="H7" s="32" t="inlineStr">
         <is>
@@ -2082,7 +2082,7 @@
         </is>
       </c>
       <c r="G8" s="39" t="n">
-        <v>1000</v>
+        <v>31946</v>
       </c>
       <c r="H8" s="32" t="inlineStr">
         <is>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="G9" s="39" t="n">
-        <v>1000</v>
+        <v>81946</v>
       </c>
       <c r="H9" s="32" t="inlineStr">
         <is>
@@ -2184,7 +2184,7 @@
         </is>
       </c>
       <c r="G10" s="39" t="n">
-        <v>1000</v>
+        <v>32919</v>
       </c>
       <c r="H10" s="32" t="inlineStr">
         <is>
@@ -2235,7 +2235,7 @@
         </is>
       </c>
       <c r="G11" s="39" t="n">
-        <v>1000</v>
+        <v>82919</v>
       </c>
       <c r="H11" s="32" t="inlineStr">
         <is>
@@ -2286,7 +2286,7 @@
         </is>
       </c>
       <c r="G12" s="39" t="n">
-        <v>1000</v>
+        <v>33892</v>
       </c>
       <c r="H12" s="32" t="inlineStr">
         <is>
@@ -2337,7 +2337,7 @@
         </is>
       </c>
       <c r="G13" s="39" t="n">
-        <v>1000</v>
+        <v>83892</v>
       </c>
       <c r="H13" s="32" t="inlineStr">
         <is>
@@ -2388,7 +2388,7 @@
         </is>
       </c>
       <c r="G14" s="39" t="n">
-        <v>1000</v>
+        <v>34865</v>
       </c>
       <c r="H14" s="32" t="inlineStr">
         <is>
@@ -2439,7 +2439,7 @@
         </is>
       </c>
       <c r="G15" s="39" t="n">
-        <v>1000</v>
+        <v>84865</v>
       </c>
       <c r="H15" s="32" t="inlineStr">
         <is>
@@ -2490,7 +2490,7 @@
         </is>
       </c>
       <c r="G16" s="39" t="n">
-        <v>1000</v>
+        <v>35838</v>
       </c>
       <c r="H16" s="32" t="inlineStr">
         <is>
@@ -2541,7 +2541,7 @@
         </is>
       </c>
       <c r="G17" s="39" t="n">
-        <v>1000</v>
+        <v>85838</v>
       </c>
       <c r="H17" s="32" t="inlineStr">
         <is>
@@ -2592,7 +2592,7 @@
         </is>
       </c>
       <c r="G18" s="39" t="n">
-        <v>1000</v>
+        <v>26000</v>
       </c>
       <c r="H18" s="32" t="inlineStr">
         <is>
@@ -3166,8 +3166,8 @@
   </sheetPr>
   <dimension ref="A1:AM34"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B15" sqref="B14:B15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -8056,8 +8056,8 @@
     <mergeCell ref="K12:L12"/>
     <mergeCell ref="K8:L8"/>
     <mergeCell ref="K27:L27"/>
+    <mergeCell ref="K23:L23"/>
     <mergeCell ref="B2:K2"/>
-    <mergeCell ref="K23:L23"/>
     <mergeCell ref="K14:L14"/>
     <mergeCell ref="K17:L17"/>
     <mergeCell ref="K7:L7"/>
@@ -8082,8 +8082,8 @@
   </sheetPr>
   <dimension ref="A1:F72"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27:C35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -8129,12 +8129,12 @@
     <row r="2">
       <c r="A2" s="5" t="inlineStr">
         <is>
-          <t>1501</t>
+          <t>2001</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>20</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
@@ -8144,25 +8144,25 @@
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>S2</t>
+          <t>S1</t>
         </is>
       </c>
       <c r="E2" s="2" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="F2" s="7" t="n">
-        <v>0.25</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="inlineStr">
         <is>
-          <t>1501</t>
+          <t>2001</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>20</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
@@ -8172,25 +8172,25 @@
       </c>
       <c r="D3" s="2" t="inlineStr">
         <is>
-          <t>S2</t>
+          <t>S1</t>
         </is>
       </c>
       <c r="E3" s="2" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="F3" s="7" t="n">
-        <v>0.3</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="5" t="inlineStr">
         <is>
-          <t>1501</t>
+          <t>2001</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>20</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
@@ -8200,25 +8200,25 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>S2</t>
+          <t>S1</t>
         </is>
       </c>
       <c r="E4" s="2" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="F4" s="7" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="inlineStr">
         <is>
-          <t>1401</t>
+          <t>1901</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
@@ -8228,25 +8228,25 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>S3</t>
+          <t>S1</t>
         </is>
       </c>
       <c r="E5" s="2" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="F5" s="7" t="n">
-        <v>0.15</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="5" t="inlineStr">
         <is>
-          <t>1401</t>
+          <t>1901</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
@@ -8256,25 +8256,25 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>S3</t>
+          <t>S1</t>
         </is>
       </c>
       <c r="E6" s="2" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="F6" s="7" t="n">
-        <v>0.2</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="inlineStr">
         <is>
-          <t>1401</t>
+          <t>1901</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
@@ -8284,25 +8284,25 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>S3</t>
+          <t>S1</t>
         </is>
       </c>
       <c r="E7" s="2" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="F7" s="7" t="n">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>1301</t>
+          <t>1801</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
@@ -8316,21 +8316,21 @@
         </is>
       </c>
       <c r="E8" s="2" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="F8" s="7" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="5" t="inlineStr">
         <is>
-          <t>1301</t>
+          <t>1801</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
@@ -8347,18 +8347,18 @@
         <v>20000</v>
       </c>
       <c r="F9" s="7" t="n">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="5" t="inlineStr">
         <is>
-          <t>1301</t>
+          <t>1801</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
@@ -8375,18 +8375,18 @@
         <v>30000</v>
       </c>
       <c r="F10" s="7" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="5" t="inlineStr">
         <is>
-          <t>1301</t>
+          <t>1701</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
@@ -8396,14 +8396,14 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>S1</t>
+          <t>S2</t>
         </is>
       </c>
       <c r="E11" s="2" t="n">
-        <v>35000</v>
+        <v>12000</v>
       </c>
       <c r="F11" s="7" t="n">
-        <v>0.28</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="12">
@@ -8428,10 +8428,10 @@
         </is>
       </c>
       <c r="E12" s="2" t="n">
-        <v>12000</v>
+        <v>25000</v>
       </c>
       <c r="F12" s="7" t="n">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="13">
@@ -8456,21 +8456,21 @@
         </is>
       </c>
       <c r="E13" s="2" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="F13" s="7" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="5" t="inlineStr">
         <is>
-          <t>1701</t>
+          <t>1601</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
@@ -8484,10 +8484,10 @@
         </is>
       </c>
       <c r="E14" s="2" t="n">
-        <v>35000</v>
+        <v>12000</v>
       </c>
       <c r="F14" s="7" t="n">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="15">
@@ -8512,10 +8512,10 @@
         </is>
       </c>
       <c r="E15" s="2" t="n">
-        <v>12000</v>
+        <v>25000</v>
       </c>
       <c r="F15" s="7" t="n">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="16">
@@ -8540,21 +8540,21 @@
         </is>
       </c>
       <c r="E16" s="2" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="F16" s="7" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="5" t="inlineStr">
         <is>
-          <t>1601</t>
+          <t>1501</t>
         </is>
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr">
@@ -8568,21 +8568,21 @@
         </is>
       </c>
       <c r="E17" s="2" t="n">
-        <v>35000</v>
+        <v>12000</v>
       </c>
       <c r="F17" s="7" t="n">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="5" t="inlineStr">
         <is>
-          <t>1901</t>
+          <t>1501</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
@@ -8592,25 +8592,25 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>S1</t>
+          <t>S2</t>
         </is>
       </c>
       <c r="E18" s="2" t="n">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="F18" s="7" t="n">
-        <v>0.05</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="5" t="inlineStr">
         <is>
-          <t>1901</t>
+          <t>1501</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C19" s="2" t="inlineStr">
@@ -8620,25 +8620,25 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>S1</t>
+          <t>S2</t>
         </is>
       </c>
       <c r="E19" s="2" t="n">
-        <v>20000</v>
+        <v>35000</v>
       </c>
       <c r="F19" s="7" t="n">
-        <v>0.12</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="5" t="inlineStr">
         <is>
-          <t>1901</t>
+          <t>1401</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
@@ -8648,11 +8648,11 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>S1</t>
+          <t>S3</t>
         </is>
       </c>
       <c r="E20" s="2" t="n">
-        <v>30000</v>
+        <v>12000</v>
       </c>
       <c r="F20" s="7" t="n">
         <v>0.15</v>
@@ -8661,12 +8661,12 @@
     <row r="21">
       <c r="A21" s="5" t="inlineStr">
         <is>
-          <t>1801</t>
+          <t>1401</t>
         </is>
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C21" s="2" t="inlineStr">
@@ -8676,25 +8676,25 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>S1</t>
+          <t>S3</t>
         </is>
       </c>
       <c r="E21" s="2" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="F21" s="7" t="n">
-        <v>0.09</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="5" t="inlineStr">
         <is>
-          <t>1801</t>
+          <t>1401</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
@@ -8704,25 +8704,25 @@
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>S1</t>
+          <t>S3</t>
         </is>
       </c>
       <c r="E22" s="2" t="n">
         <v>20000</v>
       </c>
       <c r="F22" s="7" t="n">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="5" t="inlineStr">
         <is>
-          <t>1801</t>
+          <t>1301</t>
         </is>
       </c>
       <c r="B23" s="2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C23" s="2" t="inlineStr">
@@ -8736,21 +8736,21 @@
         </is>
       </c>
       <c r="E23" s="2" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="F23" s="7" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="5" t="inlineStr">
         <is>
-          <t>2001</t>
+          <t>1301</t>
         </is>
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
@@ -8764,21 +8764,21 @@
         </is>
       </c>
       <c r="E24" s="2" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="F24" s="7" t="n">
-        <v>0.08</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="5" t="inlineStr">
         <is>
-          <t>2001</t>
+          <t>1301</t>
         </is>
       </c>
       <c r="B25" s="2" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C25" s="2" t="inlineStr">
@@ -8792,21 +8792,21 @@
         </is>
       </c>
       <c r="E25" s="2" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="F25" s="7" t="n">
-        <v>0.12</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="5" t="inlineStr">
         <is>
-          <t>2001</t>
+          <t>1301</t>
         </is>
       </c>
       <c r="B26" s="2" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
@@ -8820,430 +8820,430 @@
         </is>
       </c>
       <c r="E26" s="2" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="F26" s="7" t="n">
-        <v>0.2</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="5" t="inlineStr">
         <is>
-          <t>0102</t>
+          <t>1205</t>
         </is>
       </c>
       <c r="B27" s="2" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>05</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>T2</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E27" s="2" t="n">
-        <v>55000</v>
+        <v>52000</v>
       </c>
       <c r="F27" s="7" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="5" t="inlineStr">
         <is>
-          <t>0102</t>
+          <t>1205</t>
         </is>
       </c>
       <c r="B28" s="2" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>05</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>T2</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E28" s="2" t="n">
-        <v>70000</v>
+        <v>60000</v>
       </c>
       <c r="F28" s="7" t="n">
-        <v>0.065</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="5" t="inlineStr">
         <is>
-          <t>0102</t>
+          <t>1205</t>
         </is>
       </c>
       <c r="B29" s="2" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>05</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>T2</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E29" s="2" t="n">
-        <v>100000</v>
+        <v>90000</v>
       </c>
       <c r="F29" s="7" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="5" t="inlineStr">
         <is>
-          <t>0302</t>
+          <t>1105</t>
         </is>
       </c>
       <c r="B30" s="2" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>05</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>T2</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E30" s="2" t="n">
-        <v>55000</v>
+        <v>52000</v>
       </c>
       <c r="F30" s="7" t="n">
-        <v>0.08</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="5" t="inlineStr">
         <is>
-          <t>0302</t>
+          <t>1105</t>
         </is>
       </c>
       <c r="B31" s="2" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>05</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>T2</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E31" s="2" t="n">
-        <v>70000</v>
+        <v>60000</v>
       </c>
       <c r="F31" s="7" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="5" t="inlineStr">
         <is>
-          <t>0302</t>
+          <t>1105</t>
         </is>
       </c>
       <c r="B32" s="2" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>05</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>T2</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E32" s="2" t="n">
-        <v>100000</v>
+        <v>90000</v>
       </c>
       <c r="F32" s="7" t="n">
-        <v>0.12</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="5" t="inlineStr">
         <is>
-          <t>0202</t>
+          <t>1005</t>
         </is>
       </c>
       <c r="B33" s="2" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>05</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>T2</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E33" s="2" t="n">
-        <v>55000</v>
+        <v>52000</v>
       </c>
       <c r="F33" s="7" t="n">
-        <v>0.04</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="5" t="inlineStr">
         <is>
-          <t>0202</t>
+          <t>1005</t>
         </is>
       </c>
       <c r="B34" s="2" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>05</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>T2</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E34" s="2" t="n">
-        <v>70000</v>
+        <v>60000</v>
       </c>
       <c r="F34" s="7" t="n">
-        <v>0.055</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="5" t="inlineStr">
         <is>
-          <t>0202</t>
+          <t>1005</t>
         </is>
       </c>
       <c r="B35" s="2" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>05</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>T2</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E35" s="2" t="n">
-        <v>100000</v>
+        <v>90000</v>
       </c>
       <c r="F35" s="7" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="5" t="inlineStr">
         <is>
-          <t>0403</t>
+          <t>0905</t>
         </is>
       </c>
       <c r="B36" s="2" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>09</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>05</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>S1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E36" s="2" t="n">
-        <v>14000</v>
+        <v>52000</v>
       </c>
       <c r="F36" s="7" t="n">
-        <v>0.08</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="5" t="inlineStr">
         <is>
-          <t>0403</t>
+          <t>0905</t>
         </is>
       </c>
       <c r="B37" s="2" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>09</t>
         </is>
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>05</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>S1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E37" s="2" t="n">
-        <v>16000</v>
+        <v>60000</v>
       </c>
       <c r="F37" s="7" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="5" t="inlineStr">
         <is>
-          <t>0403</t>
+          <t>0905</t>
         </is>
       </c>
       <c r="B38" s="2" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>09</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>05</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>S1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E38" s="2" t="n">
-        <v>18000</v>
+        <v>90000</v>
       </c>
       <c r="F38" s="7" t="n">
-        <v>0.12</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="5" t="inlineStr">
         <is>
-          <t>0403</t>
+          <t>0804</t>
         </is>
       </c>
       <c r="B39" s="2" t="inlineStr">
         <is>
+          <t>08</t>
+        </is>
+      </c>
+      <c r="C39" s="2" t="inlineStr">
+        <is>
           <t>04</t>
         </is>
       </c>
-      <c r="C39" s="2" t="inlineStr">
-        <is>
-          <t>03</t>
-        </is>
-      </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>S1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E39" s="2" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="F39" s="7" t="n">
-        <v>0.15</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="5" t="inlineStr">
         <is>
-          <t>0503</t>
+          <t>0804</t>
         </is>
       </c>
       <c r="B40" s="2" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>08</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>04</t>
         </is>
       </c>
       <c r="D40" s="2" t="inlineStr">
         <is>
-          <t>S1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E40" s="2" t="n">
-        <v>15000</v>
+        <v>60000</v>
       </c>
       <c r="F40" s="7" t="n">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="5" t="inlineStr">
         <is>
-          <t>0603</t>
+          <t>0804</t>
         </is>
       </c>
       <c r="B41" s="2" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>08</t>
         </is>
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>04</t>
         </is>
       </c>
       <c r="D41" s="2" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="E41" s="2" t="n">
-        <v>0</v>
+        <v>85000</v>
       </c>
       <c r="F41" s="7" t="n">
-        <v>0.3</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="42">
@@ -9333,421 +9333,421 @@
     <row r="45">
       <c r="A45" s="5" t="inlineStr">
         <is>
-          <t>0804</t>
+          <t>0603</t>
         </is>
       </c>
       <c r="B45" s="2" t="inlineStr">
         <is>
-          <t>08</t>
+          <t>06</t>
         </is>
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>03</t>
         </is>
       </c>
       <c r="D45" s="2" t="inlineStr">
         <is>
-          <t>T1</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="E45" s="2" t="n">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="F45" s="7" t="n">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="5" t="inlineStr">
         <is>
-          <t>0804</t>
+          <t>0503</t>
         </is>
       </c>
       <c r="B46" s="2" t="inlineStr">
         <is>
-          <t>08</t>
+          <t>05</t>
         </is>
       </c>
       <c r="C46" s="2" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>03</t>
         </is>
       </c>
       <c r="D46" s="2" t="inlineStr">
         <is>
-          <t>T1</t>
+          <t>S1</t>
         </is>
       </c>
       <c r="E46" s="2" t="n">
-        <v>60000</v>
+        <v>15000</v>
       </c>
       <c r="F46" s="7" t="n">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="5" t="inlineStr">
         <is>
-          <t>0804</t>
+          <t>0403</t>
         </is>
       </c>
       <c r="B47" s="2" t="inlineStr">
         <is>
-          <t>08</t>
+          <t>04</t>
         </is>
       </c>
       <c r="C47" s="2" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>03</t>
         </is>
       </c>
       <c r="D47" s="2" t="inlineStr">
         <is>
-          <t>T1</t>
+          <t>S1</t>
         </is>
       </c>
       <c r="E47" s="2" t="n">
-        <v>85000</v>
+        <v>14000</v>
       </c>
       <c r="F47" s="7" t="n">
-        <v>0.21</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="5" t="inlineStr">
         <is>
-          <t>0905</t>
+          <t>0403</t>
         </is>
       </c>
       <c r="B48" s="2" t="inlineStr">
         <is>
-          <t>09</t>
+          <t>04</t>
         </is>
       </c>
       <c r="C48" s="2" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>03</t>
         </is>
       </c>
       <c r="D48" s="2" t="inlineStr">
         <is>
-          <t>T1</t>
+          <t>S1</t>
         </is>
       </c>
       <c r="E48" s="2" t="n">
-        <v>52000</v>
+        <v>16000</v>
       </c>
       <c r="F48" s="7" t="n">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="5" t="inlineStr">
         <is>
-          <t>0905</t>
+          <t>0403</t>
         </is>
       </c>
       <c r="B49" s="2" t="inlineStr">
         <is>
-          <t>09</t>
+          <t>04</t>
         </is>
       </c>
       <c r="C49" s="2" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>03</t>
         </is>
       </c>
       <c r="D49" s="2" t="inlineStr">
         <is>
-          <t>T1</t>
+          <t>S1</t>
         </is>
       </c>
       <c r="E49" s="2" t="n">
-        <v>60000</v>
+        <v>18000</v>
       </c>
       <c r="F49" s="7" t="n">
-        <v>0.2</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="5" t="inlineStr">
         <is>
-          <t>0905</t>
+          <t>0403</t>
         </is>
       </c>
       <c r="B50" s="2" t="inlineStr">
         <is>
-          <t>09</t>
+          <t>04</t>
         </is>
       </c>
       <c r="C50" s="2" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>03</t>
         </is>
       </c>
       <c r="D50" s="2" t="inlineStr">
         <is>
-          <t>T1</t>
+          <t>S1</t>
         </is>
       </c>
       <c r="E50" s="2" t="n">
-        <v>90000</v>
+        <v>25000</v>
       </c>
       <c r="F50" s="7" t="n">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="5" t="inlineStr">
         <is>
-          <t>1005</t>
+          <t>0302</t>
         </is>
       </c>
       <c r="B51" s="2" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>03</t>
         </is>
       </c>
       <c r="C51" s="2" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>02</t>
         </is>
       </c>
       <c r="D51" s="2" t="inlineStr">
         <is>
-          <t>T1</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E51" s="2" t="n">
-        <v>52000</v>
+        <v>55000</v>
       </c>
       <c r="F51" s="7" t="n">
-        <v>0.15</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="5" t="inlineStr">
         <is>
-          <t>1005</t>
+          <t>0302</t>
         </is>
       </c>
       <c r="B52" s="2" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>03</t>
         </is>
       </c>
       <c r="C52" s="2" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>02</t>
         </is>
       </c>
       <c r="D52" s="2" t="inlineStr">
         <is>
-          <t>T1</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E52" s="2" t="n">
-        <v>60000</v>
+        <v>70000</v>
       </c>
       <c r="F52" s="7" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="5" t="inlineStr">
         <is>
-          <t>1005</t>
+          <t>0302</t>
         </is>
       </c>
       <c r="B53" s="2" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>03</t>
         </is>
       </c>
       <c r="C53" s="2" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>02</t>
         </is>
       </c>
       <c r="D53" s="2" t="inlineStr">
         <is>
-          <t>T1</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E53" s="2" t="n">
-        <v>90000</v>
+        <v>100000</v>
       </c>
       <c r="F53" s="7" t="n">
-        <v>0.3</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="5" t="inlineStr">
         <is>
-          <t>1105</t>
+          <t>0202</t>
         </is>
       </c>
       <c r="B54" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>02</t>
         </is>
       </c>
       <c r="C54" s="2" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>02</t>
         </is>
       </c>
       <c r="D54" s="2" t="inlineStr">
         <is>
-          <t>T1</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E54" s="2" t="n">
-        <v>52000</v>
+        <v>55000</v>
       </c>
       <c r="F54" s="7" t="n">
-        <v>0.15</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="5" t="inlineStr">
         <is>
-          <t>1105</t>
+          <t>0202</t>
         </is>
       </c>
       <c r="B55" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>02</t>
         </is>
       </c>
       <c r="C55" s="2" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>02</t>
         </is>
       </c>
       <c r="D55" s="2" t="inlineStr">
         <is>
-          <t>T1</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E55" s="2" t="n">
-        <v>60000</v>
+        <v>70000</v>
       </c>
       <c r="F55" s="7" t="n">
-        <v>0.2</v>
+        <v>0.055</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="5" t="inlineStr">
         <is>
-          <t>1105</t>
+          <t>0202</t>
         </is>
       </c>
       <c r="B56" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>02</t>
         </is>
       </c>
       <c r="C56" s="2" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>02</t>
         </is>
       </c>
       <c r="D56" s="2" t="inlineStr">
         <is>
-          <t>T1</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E56" s="2" t="n">
-        <v>90000</v>
+        <v>100000</v>
       </c>
       <c r="F56" s="7" t="n">
-        <v>0.3</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="5" t="inlineStr">
         <is>
-          <t>1205</t>
+          <t>0102</t>
         </is>
       </c>
       <c r="B57" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>01</t>
         </is>
       </c>
       <c r="C57" s="2" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>02</t>
         </is>
       </c>
       <c r="D57" s="2" t="inlineStr">
         <is>
-          <t>T1</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E57" s="2" t="n">
-        <v>52000</v>
+        <v>55000</v>
       </c>
       <c r="F57" s="7" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="5" t="inlineStr">
         <is>
-          <t>1205</t>
+          <t>0102</t>
         </is>
       </c>
       <c r="B58" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>01</t>
         </is>
       </c>
       <c r="C58" s="2" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>02</t>
         </is>
       </c>
       <c r="D58" s="2" t="inlineStr">
         <is>
-          <t>T1</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E58" s="2" t="n">
-        <v>60000</v>
+        <v>70000</v>
       </c>
       <c r="F58" s="7" t="n">
-        <v>0</v>
+        <v>0.065</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="5" t="inlineStr">
         <is>
-          <t>1205</t>
+          <t>0102</t>
         </is>
       </c>
       <c r="B59" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>01</t>
         </is>
       </c>
       <c r="C59" s="2" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>02</t>
         </is>
       </c>
       <c r="D59" s="2" t="inlineStr">
         <is>
-          <t>T1</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E59" s="2" t="n">
-        <v>90000</v>
+        <v>100000</v>
       </c>
       <c r="F59" s="7" t="n">
-        <v>0</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="60">
@@ -9802,11 +9802,11 @@
   </sheetPr>
   <dimension ref="A2:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:D25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="2">
       <c r="A2" s="47" t="inlineStr">
@@ -9842,24 +9842,24 @@
     </row>
     <row r="3">
       <c r="A3" s="47" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B3" t="n">
         <v>1</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>S2</t>
+          <t>S1</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>1000</v>
       </c>
       <c r="F3" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -9896,24 +9896,24 @@
     </row>
     <row r="5">
       <c r="A5" s="47" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B5" t="n">
         <v>1</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>S3</t>
+          <t>S1</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>1000</v>
       </c>
       <c r="F5" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -9950,7 +9950,7 @@
     </row>
     <row r="7">
       <c r="A7" s="47" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
@@ -9961,13 +9961,13 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>1000</v>
       </c>
       <c r="F7" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -10015,13 +10015,13 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>1000</v>
       </c>
       <c r="F9" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -10069,13 +10069,13 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>1000</v>
       </c>
       <c r="F11" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -10112,24 +10112,24 @@
     </row>
     <row r="13">
       <c r="A13" s="47" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B13" t="n">
         <v>1</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>S1</t>
+          <t>S2</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.05</v>
+        <v>0.3</v>
       </c>
       <c r="E13" t="n">
-        <v>1000</v>
+        <v>26000</v>
       </c>
       <c r="F13" t="n">
-        <v>50</v>
+        <v>7800</v>
       </c>
     </row>
     <row r="14">
@@ -10166,24 +10166,24 @@
     </row>
     <row r="15">
       <c r="A15" s="47" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B15" t="n">
         <v>1</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>S1</t>
+          <t>S3</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.09</v>
+        <v>0.3</v>
       </c>
       <c r="E15" t="n">
-        <v>1000</v>
+        <v>85838</v>
       </c>
       <c r="F15" t="n">
-        <v>90</v>
+        <v>25751.4</v>
       </c>
     </row>
     <row r="16">
@@ -10220,7 +10220,7 @@
     </row>
     <row r="17">
       <c r="A17" s="47" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B17" t="n">
         <v>1</v>
@@ -10231,13 +10231,13 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0.08</v>
+        <v>0.28</v>
       </c>
       <c r="E17" t="n">
-        <v>1000</v>
+        <v>35838</v>
       </c>
       <c r="F17" t="n">
-        <v>80</v>
+        <v>10034.64</v>
       </c>
     </row>
     <row r="18">
@@ -10274,7 +10274,7 @@
     </row>
     <row r="19">
       <c r="A19" s="47" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B19" t="n">
         <v>2</v>
@@ -10285,13 +10285,13 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0.05</v>
+        <v>0.12</v>
       </c>
       <c r="E19" t="n">
-        <v>3000</v>
+        <v>140973</v>
       </c>
       <c r="F19" t="n">
-        <v>150</v>
+        <v>13871.7432</v>
       </c>
     </row>
     <row r="20">
@@ -10328,7 +10328,7 @@
     </row>
     <row r="21">
       <c r="A21" s="47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B21" t="n">
         <v>2</v>
@@ -10339,13 +10339,13 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E21" t="n">
-        <v>3000</v>
+        <v>140973</v>
       </c>
       <c r="F21" t="n">
-        <v>240</v>
+        <v>8091.8502</v>
       </c>
     </row>
     <row r="22">
@@ -10382,7 +10382,7 @@
     </row>
     <row r="23">
       <c r="A23" s="47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B23" t="n">
         <v>2</v>
@@ -10393,13 +10393,13 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="E23" t="n">
-        <v>3000</v>
+        <v>140973</v>
       </c>
       <c r="F23" t="n">
-        <v>120</v>
+        <v>9247.828799999999</v>
       </c>
     </row>
     <row r="24">
@@ -10436,24 +10436,24 @@
     </row>
     <row r="25">
       <c r="A25" s="47" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B25" t="n">
         <v>3</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>S1</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0.08</v>
+        <v>0.3</v>
       </c>
       <c r="E25" t="n">
-        <v>1000</v>
+        <v>194865</v>
       </c>
       <c r="F25" t="n">
-        <v>80</v>
+        <v>58459.5</v>
       </c>
     </row>
     <row r="26">
@@ -10504,10 +10504,10 @@
         <v>0.15</v>
       </c>
       <c r="E27" t="n">
-        <v>1000</v>
+        <v>31946</v>
       </c>
       <c r="F27" t="n">
-        <v>150</v>
+        <v>4791.9</v>
       </c>
     </row>
     <row r="28">
@@ -10544,24 +10544,24 @@
     </row>
     <row r="29">
       <c r="A29" s="47" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B29" t="n">
         <v>3</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>S1</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="E29" t="n">
-        <v>3000</v>
+        <v>80973</v>
       </c>
       <c r="F29" t="n">
-        <v>900</v>
+        <v>12145.95</v>
       </c>
     </row>
     <row r="30">
@@ -10598,7 +10598,7 @@
     </row>
     <row r="31">
       <c r="A31" s="47" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B31" t="n">
         <v>4</v>
@@ -10609,13 +10609,13 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>0.05</v>
+        <v>0.21</v>
       </c>
       <c r="E31" t="n">
-        <v>2000</v>
+        <v>115838</v>
       </c>
       <c r="F31" t="n">
-        <v>100</v>
+        <v>24325.98</v>
       </c>
     </row>
     <row r="32">
@@ -10652,7 +10652,7 @@
     </row>
     <row r="33">
       <c r="A33" s="47" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B33" t="n">
         <v>4</v>
@@ -10663,13 +10663,13 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>0.25</v>
+        <v>0.11</v>
       </c>
       <c r="E33" t="n">
-        <v>2000</v>
+        <v>115838</v>
       </c>
       <c r="F33" t="n">
-        <v>500</v>
+        <v>12742.18</v>
       </c>
     </row>
     <row r="34">
@@ -10706,7 +10706,7 @@
     </row>
     <row r="35">
       <c r="A35" s="47" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B35" t="n">
         <v>5</v>
@@ -10717,13 +10717,13 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>4000</v>
+        <v>237514</v>
       </c>
       <c r="F35" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -10760,7 +10760,7 @@
     </row>
     <row r="37">
       <c r="A37" s="47" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B37" t="n">
         <v>5</v>
@@ -10771,13 +10771,13 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="E37" t="n">
-        <v>4000</v>
+        <v>237514</v>
       </c>
       <c r="F37" t="n">
-        <v>600</v>
+        <v>71254.2</v>
       </c>
     </row>
     <row r="38">
@@ -10814,7 +10814,7 @@
     </row>
     <row r="39">
       <c r="A39" s="47" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B39" t="n">
         <v>5</v>
@@ -10825,13 +10825,13 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="E39" t="n">
-        <v>4000</v>
+        <v>237514</v>
       </c>
       <c r="F39" t="n">
-        <v>600</v>
+        <v>71254.2</v>
       </c>
     </row>
     <row r="40">
@@ -10868,7 +10868,7 @@
     </row>
     <row r="41">
       <c r="A41" s="47" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B41" t="n">
         <v>5</v>
@@ -10879,13 +10879,13 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="E41" t="n">
-        <v>4000</v>
+        <v>237514</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>71254.2</v>
       </c>
     </row>
   </sheetData>
